--- a/Code/Results/Cases/Case_1_61/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_61/res_line/pl_mw.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2836916394682447</v>
+        <v>0.2836916394677047</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1.295418339349396</v>
+        <v>1.295418339349226</v>
       </c>
       <c r="E2">
-        <v>4.03741064519545</v>
+        <v>4.037410645195521</v>
       </c>
       <c r="F2">
-        <v>17.66033713507338</v>
+        <v>17.66033713507386</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>25.32998951355609</v>
+        <v>25.32998951355671</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2430272481688291</v>
+        <v>0.2430272481687865</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.7242989941592839</v>
+        <v>0.7242989941592555</v>
       </c>
       <c r="E3">
-        <v>3.081008134383595</v>
+        <v>3.081008134383623</v>
       </c>
       <c r="F3">
         <v>10.8248937630554</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>18.57127003445382</v>
+        <v>18.57127003445373</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2201473827384604</v>
+        <v>0.2201473827388156</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.5577105458423972</v>
+        <v>0.5577105458424114</v>
       </c>
       <c r="E4">
-        <v>2.682077757864548</v>
+        <v>2.682077757864491</v>
       </c>
       <c r="F4">
-        <v>8.682976672152137</v>
+        <v>8.682976672152108</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>15.94955579111476</v>
+        <v>15.94955579111453</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2110445745121581</v>
+        <v>0.2110445745122149</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.5036338930248547</v>
+        <v>0.5036338930250253</v>
       </c>
       <c r="E5">
-        <v>2.535101739321746</v>
+        <v>2.535101739321718</v>
       </c>
       <c r="F5">
-        <v>7.967423963074083</v>
+        <v>7.967423963073941</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>15.00378907099531</v>
+        <v>15.00378907099505</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2095434865120183</v>
+        <v>0.2095434865121177</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.4952342233023188</v>
+        <v>0.4952342233024325</v>
       </c>
       <c r="E6">
-        <v>2.511368491791657</v>
+        <v>2.511368491791558</v>
       </c>
       <c r="F6">
-        <v>7.855256107086063</v>
+        <v>7.85525610708612</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>14.85198386037916</v>
+        <v>14.85198386037879</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2200238687735805</v>
+        <v>0.22002386877368</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.556938131832112</v>
+        <v>0.5569381318319131</v>
       </c>
       <c r="E7">
-        <v>2.680045942635218</v>
+        <v>2.680045942635189</v>
       </c>
       <c r="F7">
-        <v>8.672832896022385</v>
+        <v>8.672832896022356</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>15.93641296617565</v>
+        <v>15.93641296617557</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2687692904906811</v>
+        <v>0.2687692904904537</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>1.006259656669755</v>
+        <v>1.006259656669926</v>
       </c>
       <c r="E8">
-        <v>3.617410054309971</v>
+        <v>3.617410054309872</v>
       </c>
       <c r="F8">
-        <v>14.28184114300836</v>
+        <v>14.28184114300825</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>22.25668554080269</v>
+        <v>22.25668554080247</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.2687692904906811</v>
+        <v>0.2687692904904537</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1.006259656669755</v>
+        <v>1.006259656669926</v>
       </c>
       <c r="E9">
-        <v>3.617410054309971</v>
+        <v>3.617410054309872</v>
       </c>
       <c r="F9">
-        <v>14.28184114300836</v>
+        <v>14.28184114300825</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>22.25668554080269</v>
+        <v>22.25668554080247</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.2687692904906811</v>
+        <v>0.2687692904904537</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1.006259656669755</v>
+        <v>1.006259656669926</v>
       </c>
       <c r="E10">
-        <v>3.617410054309971</v>
+        <v>3.617410054309872</v>
       </c>
       <c r="F10">
-        <v>14.28184114300836</v>
+        <v>14.28184114300825</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>22.25668554080269</v>
+        <v>22.25668554080247</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.2687692904906811</v>
+        <v>0.2687692904904537</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1.006259656669755</v>
+        <v>1.006259656669926</v>
       </c>
       <c r="E11">
-        <v>3.617410054309971</v>
+        <v>3.617410054309872</v>
       </c>
       <c r="F11">
-        <v>14.28184114300836</v>
+        <v>14.28184114300825</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>22.25668554080269</v>
+        <v>22.25668554080247</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.2687692904906811</v>
+        <v>0.2687692904904537</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1.006259656669755</v>
+        <v>1.006259656669926</v>
       </c>
       <c r="E12">
-        <v>3.617410054309971</v>
+        <v>3.617410054309872</v>
       </c>
       <c r="F12">
-        <v>14.28184114300836</v>
+        <v>14.28184114300825</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>22.25668554080269</v>
+        <v>22.25668554080247</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.2687692904906811</v>
+        <v>0.2687692904904537</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>1.006259656669755</v>
+        <v>1.006259656669926</v>
       </c>
       <c r="E13">
-        <v>3.617410054309971</v>
+        <v>3.617410054309872</v>
       </c>
       <c r="F13">
-        <v>14.28184114300836</v>
+        <v>14.28184114300825</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>22.25668554080269</v>
+        <v>22.25668554080247</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.2687692904906811</v>
+        <v>0.2687692904904537</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1.006259656669755</v>
+        <v>1.006259656669926</v>
       </c>
       <c r="E14">
-        <v>3.617410054309971</v>
+        <v>3.617410054309872</v>
       </c>
       <c r="F14">
-        <v>14.28184114300836</v>
+        <v>14.28184114300825</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>22.25668554080269</v>
+        <v>22.25668554080247</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.2687692904906811</v>
+        <v>0.2687692904904537</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>1.006259656669755</v>
+        <v>1.006259656669926</v>
       </c>
       <c r="E15">
-        <v>3.617410054309971</v>
+        <v>3.617410054309872</v>
       </c>
       <c r="F15">
-        <v>14.28184114300836</v>
+        <v>14.28184114300825</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>22.25668554080269</v>
+        <v>22.25668554080247</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.2687692904906811</v>
+        <v>0.2687692904904537</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>1.006259656669755</v>
+        <v>1.006259656669926</v>
       </c>
       <c r="E16">
-        <v>3.617410054309971</v>
+        <v>3.617410054309872</v>
       </c>
       <c r="F16">
-        <v>14.28184114300836</v>
+        <v>14.28184114300825</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>22.25668554080269</v>
+        <v>22.25668554080247</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.2687692904906811</v>
+        <v>0.2687692904904537</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>1.006259656669755</v>
+        <v>1.006259656669926</v>
       </c>
       <c r="E17">
-        <v>3.617410054309971</v>
+        <v>3.617410054309872</v>
       </c>
       <c r="F17">
-        <v>14.28184114300836</v>
+        <v>14.28184114300825</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>22.25668554080269</v>
+        <v>22.25668554080247</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.2687692904906811</v>
+        <v>0.2687692904904537</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>1.006259656669755</v>
+        <v>1.006259656669926</v>
       </c>
       <c r="E18">
-        <v>3.617410054309971</v>
+        <v>3.617410054309872</v>
       </c>
       <c r="F18">
-        <v>14.28184114300836</v>
+        <v>14.28184114300825</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>22.25668554080269</v>
+        <v>22.25668554080247</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.2687692904906811</v>
+        <v>0.2687692904904537</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1.006259656669755</v>
+        <v>1.006259656669926</v>
       </c>
       <c r="E19">
-        <v>3.617410054309971</v>
+        <v>3.617410054309872</v>
       </c>
       <c r="F19">
-        <v>14.28184114300836</v>
+        <v>14.28184114300825</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>22.25668554080269</v>
+        <v>22.25668554080247</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.2687692904906811</v>
+        <v>0.2687692904904537</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>1.006259656669755</v>
+        <v>1.006259656669926</v>
       </c>
       <c r="E20">
-        <v>3.617410054309971</v>
+        <v>3.617410054309872</v>
       </c>
       <c r="F20">
-        <v>14.28184114300836</v>
+        <v>14.28184114300825</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>22.25668554080269</v>
+        <v>22.25668554080247</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.2687692904906811</v>
+        <v>0.2687692904904537</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>1.006259656669755</v>
+        <v>1.006259656669926</v>
       </c>
       <c r="E21">
-        <v>3.617410054309971</v>
+        <v>3.617410054309872</v>
       </c>
       <c r="F21">
-        <v>14.28184114300836</v>
+        <v>14.28184114300825</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>22.25668554080269</v>
+        <v>22.25668554080247</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.2687692904906811</v>
+        <v>0.2687692904904537</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>1.006259656669755</v>
+        <v>1.006259656669926</v>
       </c>
       <c r="E22">
-        <v>3.617410054309971</v>
+        <v>3.617410054309872</v>
       </c>
       <c r="F22">
-        <v>14.28184114300836</v>
+        <v>14.28184114300825</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>22.25668554080269</v>
+        <v>22.25668554080247</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.2687692904906811</v>
+        <v>0.2687692904904537</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>1.006259656669755</v>
+        <v>1.006259656669926</v>
       </c>
       <c r="E23">
-        <v>3.617410054309971</v>
+        <v>3.617410054309872</v>
       </c>
       <c r="F23">
-        <v>14.28184114300836</v>
+        <v>14.28184114300825</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>22.25668554080269</v>
+        <v>22.25668554080247</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.2687692904906811</v>
+        <v>0.2687692904904537</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>1.006259656669755</v>
+        <v>1.006259656669926</v>
       </c>
       <c r="E24">
-        <v>3.617410054309971</v>
+        <v>3.617410054309872</v>
       </c>
       <c r="F24">
-        <v>14.28184114300836</v>
+        <v>14.28184114300825</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>22.25668554080269</v>
+        <v>22.25668554080247</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.2687692904906811</v>
+        <v>0.2687692904904537</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>1.006259656669755</v>
+        <v>1.006259656669926</v>
       </c>
       <c r="E25">
-        <v>3.617410054309971</v>
+        <v>3.617410054309872</v>
       </c>
       <c r="F25">
-        <v>14.28184114300836</v>
+        <v>14.28184114300825</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>22.25668554080269</v>
+        <v>22.25668554080247</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_61/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_61/res_line/pl_mw.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2836916394677047</v>
+        <v>0.2836916394682447</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1.295418339349226</v>
+        <v>1.295418339349396</v>
       </c>
       <c r="E2">
-        <v>4.037410645195521</v>
+        <v>4.03741064519545</v>
       </c>
       <c r="F2">
-        <v>17.66033713507386</v>
+        <v>17.66033713507338</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>25.32998951355671</v>
+        <v>25.32998951355609</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2430272481687865</v>
+        <v>0.2430272481688291</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.7242989941592555</v>
+        <v>0.7242989941592839</v>
       </c>
       <c r="E3">
-        <v>3.081008134383623</v>
+        <v>3.081008134383595</v>
       </c>
       <c r="F3">
         <v>10.8248937630554</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>18.57127003445373</v>
+        <v>18.57127003445382</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2201473827388156</v>
+        <v>0.2201473827384604</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.5577105458424114</v>
+        <v>0.5577105458423972</v>
       </c>
       <c r="E4">
-        <v>2.682077757864491</v>
+        <v>2.682077757864548</v>
       </c>
       <c r="F4">
-        <v>8.682976672152108</v>
+        <v>8.682976672152137</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>15.94955579111453</v>
+        <v>15.94955579111476</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2110445745122149</v>
+        <v>0.2110445745121581</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.5036338930250253</v>
+        <v>0.5036338930248547</v>
       </c>
       <c r="E5">
-        <v>2.535101739321718</v>
+        <v>2.535101739321746</v>
       </c>
       <c r="F5">
-        <v>7.967423963073941</v>
+        <v>7.967423963074083</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>15.00378907099505</v>
+        <v>15.00378907099531</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2095434865121177</v>
+        <v>0.2095434865120183</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.4952342233024325</v>
+        <v>0.4952342233023188</v>
       </c>
       <c r="E6">
-        <v>2.511368491791558</v>
+        <v>2.511368491791657</v>
       </c>
       <c r="F6">
-        <v>7.85525610708612</v>
+        <v>7.855256107086063</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>14.85198386037879</v>
+        <v>14.85198386037916</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.22002386877368</v>
+        <v>0.2200238687735805</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.5569381318319131</v>
+        <v>0.556938131832112</v>
       </c>
       <c r="E7">
-        <v>2.680045942635189</v>
+        <v>2.680045942635218</v>
       </c>
       <c r="F7">
-        <v>8.672832896022356</v>
+        <v>8.672832896022385</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>15.93641296617557</v>
+        <v>15.93641296617565</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2687692904904537</v>
+        <v>0.2687692904906811</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>1.006259656669926</v>
+        <v>1.006259656669755</v>
       </c>
       <c r="E8">
-        <v>3.617410054309872</v>
+        <v>3.617410054309971</v>
       </c>
       <c r="F8">
-        <v>14.28184114300825</v>
+        <v>14.28184114300836</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>22.25668554080247</v>
+        <v>22.25668554080269</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.2687692904904537</v>
+        <v>0.2687692904906811</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1.006259656669926</v>
+        <v>1.006259656669755</v>
       </c>
       <c r="E9">
-        <v>3.617410054309872</v>
+        <v>3.617410054309971</v>
       </c>
       <c r="F9">
-        <v>14.28184114300825</v>
+        <v>14.28184114300836</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>22.25668554080247</v>
+        <v>22.25668554080269</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.2687692904904537</v>
+        <v>0.2687692904906811</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1.006259656669926</v>
+        <v>1.006259656669755</v>
       </c>
       <c r="E10">
-        <v>3.617410054309872</v>
+        <v>3.617410054309971</v>
       </c>
       <c r="F10">
-        <v>14.28184114300825</v>
+        <v>14.28184114300836</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>22.25668554080247</v>
+        <v>22.25668554080269</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.2687692904904537</v>
+        <v>0.2687692904906811</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1.006259656669926</v>
+        <v>1.006259656669755</v>
       </c>
       <c r="E11">
-        <v>3.617410054309872</v>
+        <v>3.617410054309971</v>
       </c>
       <c r="F11">
-        <v>14.28184114300825</v>
+        <v>14.28184114300836</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>22.25668554080247</v>
+        <v>22.25668554080269</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.2687692904904537</v>
+        <v>0.2687692904906811</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1.006259656669926</v>
+        <v>1.006259656669755</v>
       </c>
       <c r="E12">
-        <v>3.617410054309872</v>
+        <v>3.617410054309971</v>
       </c>
       <c r="F12">
-        <v>14.28184114300825</v>
+        <v>14.28184114300836</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>22.25668554080247</v>
+        <v>22.25668554080269</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.2687692904904537</v>
+        <v>0.2687692904906811</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>1.006259656669926</v>
+        <v>1.006259656669755</v>
       </c>
       <c r="E13">
-        <v>3.617410054309872</v>
+        <v>3.617410054309971</v>
       </c>
       <c r="F13">
-        <v>14.28184114300825</v>
+        <v>14.28184114300836</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>22.25668554080247</v>
+        <v>22.25668554080269</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.2687692904904537</v>
+        <v>0.2687692904906811</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1.006259656669926</v>
+        <v>1.006259656669755</v>
       </c>
       <c r="E14">
-        <v>3.617410054309872</v>
+        <v>3.617410054309971</v>
       </c>
       <c r="F14">
-        <v>14.28184114300825</v>
+        <v>14.28184114300836</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>22.25668554080247</v>
+        <v>22.25668554080269</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.2687692904904537</v>
+        <v>0.2687692904906811</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>1.006259656669926</v>
+        <v>1.006259656669755</v>
       </c>
       <c r="E15">
-        <v>3.617410054309872</v>
+        <v>3.617410054309971</v>
       </c>
       <c r="F15">
-        <v>14.28184114300825</v>
+        <v>14.28184114300836</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>22.25668554080247</v>
+        <v>22.25668554080269</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.2687692904904537</v>
+        <v>0.2687692904906811</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>1.006259656669926</v>
+        <v>1.006259656669755</v>
       </c>
       <c r="E16">
-        <v>3.617410054309872</v>
+        <v>3.617410054309971</v>
       </c>
       <c r="F16">
-        <v>14.28184114300825</v>
+        <v>14.28184114300836</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>22.25668554080247</v>
+        <v>22.25668554080269</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.2687692904904537</v>
+        <v>0.2687692904906811</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>1.006259656669926</v>
+        <v>1.006259656669755</v>
       </c>
       <c r="E17">
-        <v>3.617410054309872</v>
+        <v>3.617410054309971</v>
       </c>
       <c r="F17">
-        <v>14.28184114300825</v>
+        <v>14.28184114300836</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>22.25668554080247</v>
+        <v>22.25668554080269</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.2687692904904537</v>
+        <v>0.2687692904906811</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>1.006259656669926</v>
+        <v>1.006259656669755</v>
       </c>
       <c r="E18">
-        <v>3.617410054309872</v>
+        <v>3.617410054309971</v>
       </c>
       <c r="F18">
-        <v>14.28184114300825</v>
+        <v>14.28184114300836</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>22.25668554080247</v>
+        <v>22.25668554080269</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.2687692904904537</v>
+        <v>0.2687692904906811</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1.006259656669926</v>
+        <v>1.006259656669755</v>
       </c>
       <c r="E19">
-        <v>3.617410054309872</v>
+        <v>3.617410054309971</v>
       </c>
       <c r="F19">
-        <v>14.28184114300825</v>
+        <v>14.28184114300836</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>22.25668554080247</v>
+        <v>22.25668554080269</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.2687692904904537</v>
+        <v>0.2687692904906811</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>1.006259656669926</v>
+        <v>1.006259656669755</v>
       </c>
       <c r="E20">
-        <v>3.617410054309872</v>
+        <v>3.617410054309971</v>
       </c>
       <c r="F20">
-        <v>14.28184114300825</v>
+        <v>14.28184114300836</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>22.25668554080247</v>
+        <v>22.25668554080269</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.2687692904904537</v>
+        <v>0.2687692904906811</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>1.006259656669926</v>
+        <v>1.006259656669755</v>
       </c>
       <c r="E21">
-        <v>3.617410054309872</v>
+        <v>3.617410054309971</v>
       </c>
       <c r="F21">
-        <v>14.28184114300825</v>
+        <v>14.28184114300836</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>22.25668554080247</v>
+        <v>22.25668554080269</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.2687692904904537</v>
+        <v>0.2687692904906811</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>1.006259656669926</v>
+        <v>1.006259656669755</v>
       </c>
       <c r="E22">
-        <v>3.617410054309872</v>
+        <v>3.617410054309971</v>
       </c>
       <c r="F22">
-        <v>14.28184114300825</v>
+        <v>14.28184114300836</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>22.25668554080247</v>
+        <v>22.25668554080269</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.2687692904904537</v>
+        <v>0.2687692904906811</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>1.006259656669926</v>
+        <v>1.006259656669755</v>
       </c>
       <c r="E23">
-        <v>3.617410054309872</v>
+        <v>3.617410054309971</v>
       </c>
       <c r="F23">
-        <v>14.28184114300825</v>
+        <v>14.28184114300836</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>22.25668554080247</v>
+        <v>22.25668554080269</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.2687692904904537</v>
+        <v>0.2687692904906811</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>1.006259656669926</v>
+        <v>1.006259656669755</v>
       </c>
       <c r="E24">
-        <v>3.617410054309872</v>
+        <v>3.617410054309971</v>
       </c>
       <c r="F24">
-        <v>14.28184114300825</v>
+        <v>14.28184114300836</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>22.25668554080247</v>
+        <v>22.25668554080269</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.2687692904904537</v>
+        <v>0.2687692904906811</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>1.006259656669926</v>
+        <v>1.006259656669755</v>
       </c>
       <c r="E25">
-        <v>3.617410054309872</v>
+        <v>3.617410054309971</v>
       </c>
       <c r="F25">
-        <v>14.28184114300825</v>
+        <v>14.28184114300836</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>22.25668554080247</v>
+        <v>22.25668554080269</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_61/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_61/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,28 +406,31 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2836916394682447</v>
+        <v>0.2827889036785507</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1.295418339349396</v>
+        <v>1.179065998354076</v>
       </c>
       <c r="E2">
-        <v>4.03741064519545</v>
+        <v>3.937192330811669</v>
       </c>
       <c r="F2">
-        <v>17.66033713507338</v>
+        <v>16.44059751039589</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0004312899205711086</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -442,30 +445,33 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>25.32998951355609</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>24.52082921805851</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2430272481688291</v>
+        <v>0.2426906437504783</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.7242989941592839</v>
+        <v>0.6827529147082458</v>
       </c>
       <c r="E3">
-        <v>3.081008134383595</v>
+        <v>3.044927982473226</v>
       </c>
       <c r="F3">
-        <v>10.8248937630554</v>
+        <v>10.4157328888694</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0005232883636694071</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -480,30 +486,33 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>18.57127003445382</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>18.3047067259798</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2201473827384604</v>
+        <v>0.2198928623400462</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.5577105458423972</v>
+        <v>0.526986166204253</v>
       </c>
       <c r="E4">
-        <v>2.682077757864548</v>
+        <v>2.654333384949936</v>
       </c>
       <c r="F4">
-        <v>8.682976672152137</v>
+        <v>8.388681545486463</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0005613814903653247</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -518,30 +527,33 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>15.94955579111476</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>15.75469687366459</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2110445745121581</v>
+        <v>0.2108143096984776</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.5036338930248547</v>
+        <v>0.4761096949478798</v>
       </c>
       <c r="E5">
-        <v>2.535101739321746</v>
+        <v>2.509690149201603</v>
       </c>
       <c r="F5">
-        <v>7.967423963074083</v>
+        <v>7.706747995048914</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0005753803009618298</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -556,30 +568,33 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>15.00378907099531</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>14.82926938531156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2095434865120183</v>
+        <v>0.209316920669707</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.4952342233023188</v>
+        <v>0.4681983476061333</v>
       </c>
       <c r="E6">
-        <v>2.511368491791657</v>
+        <v>2.486306380063255</v>
       </c>
       <c r="F6">
-        <v>7.855256107086063</v>
+        <v>7.599692788029017</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0005776414399700383</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -594,30 +609,33 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>14.85198386037916</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>14.68052641385012</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2200238687735805</v>
+        <v>0.2197697009455908</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.556938131832112</v>
+        <v>0.5262602507502834</v>
       </c>
       <c r="E7">
-        <v>2.680045942635218</v>
+        <v>2.652335967231167</v>
       </c>
       <c r="F7">
-        <v>8.672832896022385</v>
+        <v>8.379027593964992</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.000561575020075268</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -632,30 +650,33 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>15.93641296617565</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>15.74185280263566</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2687692904906811</v>
+        <v>0.2682417492750204</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>1.006259656669755</v>
+        <v>0.9395152724082436</v>
       </c>
       <c r="E8">
-        <v>3.617410054309971</v>
+        <v>3.560390312576246</v>
       </c>
       <c r="F8">
-        <v>14.28184114300836</v>
+        <v>13.60129858651516</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0004714557035712065</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -670,30 +691,33 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>22.25668554080269</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>21.81253399052801</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.2687692904906811</v>
+        <v>0.2682417492750204</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1.006259656669755</v>
+        <v>0.9395152724082436</v>
       </c>
       <c r="E9">
-        <v>3.617410054309971</v>
+        <v>3.560390312576246</v>
       </c>
       <c r="F9">
-        <v>14.28184114300836</v>
+        <v>13.60129858651516</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0004714557035712065</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -708,30 +732,33 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>22.25668554080269</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>21.81253399052801</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.2687692904906811</v>
+        <v>0.2682417492750204</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1.006259656669755</v>
+        <v>0.9395152724082436</v>
       </c>
       <c r="E10">
-        <v>3.617410054309971</v>
+        <v>3.560390312576246</v>
       </c>
       <c r="F10">
-        <v>14.28184114300836</v>
+        <v>13.60129858651516</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0004714557035712065</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -746,30 +773,33 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>22.25668554080269</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>21.81253399052801</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.2687692904906811</v>
+        <v>0.2682417492750204</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1.006259656669755</v>
+        <v>0.9395152724082436</v>
       </c>
       <c r="E11">
-        <v>3.617410054309971</v>
+        <v>3.560390312576246</v>
       </c>
       <c r="F11">
-        <v>14.28184114300836</v>
+        <v>13.60129858651516</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0004714557035712065</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -784,30 +814,33 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>22.25668554080269</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>21.81253399052801</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.2687692904906811</v>
+        <v>0.2682417492750204</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1.006259656669755</v>
+        <v>0.9395152724082436</v>
       </c>
       <c r="E12">
-        <v>3.617410054309971</v>
+        <v>3.560390312576246</v>
       </c>
       <c r="F12">
-        <v>14.28184114300836</v>
+        <v>13.60129858651516</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0004714557035712065</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -822,30 +855,33 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>22.25668554080269</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>21.81253399052801</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.2687692904906811</v>
+        <v>0.2682417492750204</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>1.006259656669755</v>
+        <v>0.9395152724082436</v>
       </c>
       <c r="E13">
-        <v>3.617410054309971</v>
+        <v>3.560390312576246</v>
       </c>
       <c r="F13">
-        <v>14.28184114300836</v>
+        <v>13.60129858651516</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0004714557035712065</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -860,30 +896,33 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>22.25668554080269</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>21.81253399052801</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.2687692904906811</v>
+        <v>0.2682417492750204</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1.006259656669755</v>
+        <v>0.9395152724082436</v>
       </c>
       <c r="E14">
-        <v>3.617410054309971</v>
+        <v>3.560390312576246</v>
       </c>
       <c r="F14">
-        <v>14.28184114300836</v>
+        <v>13.60129858651516</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0004714557035712065</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -898,30 +937,33 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>22.25668554080269</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>21.81253399052801</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.2687692904906811</v>
+        <v>0.2682417492750204</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>1.006259656669755</v>
+        <v>0.9395152724082436</v>
       </c>
       <c r="E15">
-        <v>3.617410054309971</v>
+        <v>3.560390312576246</v>
       </c>
       <c r="F15">
-        <v>14.28184114300836</v>
+        <v>13.60129858651516</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0004714557035712065</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -936,30 +978,33 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>22.25668554080269</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>21.81253399052801</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.2687692904906811</v>
+        <v>0.2682417492750204</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>1.006259656669755</v>
+        <v>0.9395152724082436</v>
       </c>
       <c r="E16">
-        <v>3.617410054309971</v>
+        <v>3.560390312576246</v>
       </c>
       <c r="F16">
-        <v>14.28184114300836</v>
+        <v>13.60129858651516</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0004714557035712065</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -974,30 +1019,33 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>22.25668554080269</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>21.81253399052801</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.2687692904906811</v>
+        <v>0.2682417492750204</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>1.006259656669755</v>
+        <v>0.9395152724082436</v>
       </c>
       <c r="E17">
-        <v>3.617410054309971</v>
+        <v>3.560390312576246</v>
       </c>
       <c r="F17">
-        <v>14.28184114300836</v>
+        <v>13.60129858651516</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0004714557035712065</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1012,30 +1060,33 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>22.25668554080269</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>21.81253399052801</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.2687692904906811</v>
+        <v>0.2682417492750204</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>1.006259656669755</v>
+        <v>0.9395152724082436</v>
       </c>
       <c r="E18">
-        <v>3.617410054309971</v>
+        <v>3.560390312576246</v>
       </c>
       <c r="F18">
-        <v>14.28184114300836</v>
+        <v>13.60129858651516</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0004714557035712065</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1050,30 +1101,33 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>22.25668554080269</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>21.81253399052801</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.2687692904906811</v>
+        <v>0.2682417492750204</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1.006259656669755</v>
+        <v>0.9395152724082436</v>
       </c>
       <c r="E19">
-        <v>3.617410054309971</v>
+        <v>3.560390312576246</v>
       </c>
       <c r="F19">
-        <v>14.28184114300836</v>
+        <v>13.60129858651516</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0004714557035712065</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1088,30 +1142,33 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>22.25668554080269</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>21.81253399052801</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.2687692904906811</v>
+        <v>0.2682417492750204</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>1.006259656669755</v>
+        <v>0.9395152724082436</v>
       </c>
       <c r="E20">
-        <v>3.617410054309971</v>
+        <v>3.560390312576246</v>
       </c>
       <c r="F20">
-        <v>14.28184114300836</v>
+        <v>13.60129858651516</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0004714557035712065</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1126,30 +1183,33 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>22.25668554080269</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>21.81253399052801</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.2687692904906811</v>
+        <v>0.2682417492750204</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>1.006259656669755</v>
+        <v>0.9395152724082436</v>
       </c>
       <c r="E21">
-        <v>3.617410054309971</v>
+        <v>3.560390312576246</v>
       </c>
       <c r="F21">
-        <v>14.28184114300836</v>
+        <v>13.60129858651516</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0004714557035712065</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1164,30 +1224,33 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>22.25668554080269</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>21.81253399052801</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.2687692904906811</v>
+        <v>0.2682417492750204</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>1.006259656669755</v>
+        <v>0.9395152724082436</v>
       </c>
       <c r="E22">
-        <v>3.617410054309971</v>
+        <v>3.560390312576246</v>
       </c>
       <c r="F22">
-        <v>14.28184114300836</v>
+        <v>13.60129858651516</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0004714557035712065</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1202,30 +1265,33 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>22.25668554080269</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>21.81253399052801</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.2687692904906811</v>
+        <v>0.2682417492750204</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>1.006259656669755</v>
+        <v>0.9395152724082436</v>
       </c>
       <c r="E23">
-        <v>3.617410054309971</v>
+        <v>3.560390312576246</v>
       </c>
       <c r="F23">
-        <v>14.28184114300836</v>
+        <v>13.60129858651516</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0004714557035712065</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1240,30 +1306,33 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>22.25668554080269</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>21.81253399052801</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.2687692904906811</v>
+        <v>0.2682417492750204</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>1.006259656669755</v>
+        <v>0.9395152724082436</v>
       </c>
       <c r="E24">
-        <v>3.617410054309971</v>
+        <v>3.560390312576246</v>
       </c>
       <c r="F24">
-        <v>14.28184114300836</v>
+        <v>13.60129858651516</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0004714557035712065</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1278,30 +1347,33 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>22.25668554080269</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>21.81253399052801</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.2687692904906811</v>
+        <v>0.2682417492750204</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>1.006259656669755</v>
+        <v>0.9395152724082436</v>
       </c>
       <c r="E25">
-        <v>3.617410054309971</v>
+        <v>3.560390312576246</v>
       </c>
       <c r="F25">
-        <v>14.28184114300836</v>
+        <v>13.60129858651516</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0004714557035712065</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1316,7 +1388,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>22.25668554080269</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>21.81253399052801</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_61/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_61/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,28 +409,34 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2827889036785507</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1.179065998354076</v>
+        <v>0.8030543808967536</v>
       </c>
       <c r="E2">
-        <v>3.937192330811669</v>
+        <v>2.162897324989586</v>
       </c>
       <c r="F2">
-        <v>16.44059751039589</v>
+        <v>12.62232709000267</v>
       </c>
       <c r="G2">
-        <v>0.0004312899205711086</v>
+        <v>0.0005502931265490571</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,30 +454,36 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>24.52082921805851</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>11.30068367827556</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2426906437504783</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.6827529147082458</v>
+        <v>0.6428663796791056</v>
       </c>
       <c r="E3">
-        <v>3.044927982473226</v>
+        <v>1.71683358567202</v>
       </c>
       <c r="F3">
-        <v>10.4157328888694</v>
+        <v>10.20477380391978</v>
       </c>
       <c r="G3">
-        <v>0.0005232883636694071</v>
+        <v>0.0005861267239574111</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -489,30 +501,36 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>18.3047067259798</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>9.128273442625414</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2198928623400462</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.526986166204253</v>
+        <v>0.5586558940487691</v>
       </c>
       <c r="E4">
-        <v>2.654333384949936</v>
+        <v>1.485699330385373</v>
       </c>
       <c r="F4">
-        <v>8.388681545486463</v>
+        <v>8.915594443148223</v>
       </c>
       <c r="G4">
-        <v>0.0005613814903653247</v>
+        <v>0.0006063649138320754</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -530,30 +548,36 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>15.75469687366459</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>7.971182744370765</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2108143096984776</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.4761096949478798</v>
+        <v>0.5266662221934837</v>
       </c>
       <c r="E5">
-        <v>2.509690149201603</v>
+        <v>1.398436435259427</v>
       </c>
       <c r="F5">
-        <v>7.706747995048914</v>
+        <v>8.422809272709486</v>
       </c>
       <c r="G5">
-        <v>0.0005753803009618298</v>
+        <v>0.0006143532442075964</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -571,30 +595,36 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>14.82926938531156</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>7.5291132393005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.209316920669707</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.4681983476061333</v>
+        <v>0.5214703744720168</v>
       </c>
       <c r="E6">
-        <v>2.486306380063255</v>
+        <v>1.384289656881691</v>
       </c>
       <c r="F6">
-        <v>7.599692788029017</v>
+        <v>8.342616797947727</v>
       </c>
       <c r="G6">
-        <v>0.0005776414399700383</v>
+        <v>0.000615667768781576</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -612,30 +642,36 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>14.68052641385012</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>7.45718509286678</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2197697009455908</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.5262602507502834</v>
+        <v>0.5582162143281266</v>
       </c>
       <c r="E7">
-        <v>2.652335967231167</v>
+        <v>1.48449800664126</v>
       </c>
       <c r="F7">
-        <v>8.379027593964992</v>
+        <v>8.908832505664748</v>
       </c>
       <c r="G7">
-        <v>0.000561575020075268</v>
+        <v>0.0006064735195755321</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -653,30 +689,36 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>15.74185280263566</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>7.965115906878935</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2682417492750204</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.9395152724082436</v>
+        <v>0.7438765011107762</v>
       </c>
       <c r="E8">
-        <v>3.560390312576246</v>
+        <v>1.997053786313273</v>
       </c>
       <c r="F8">
-        <v>13.60129858651516</v>
+        <v>11.73478755783165</v>
       </c>
       <c r="G8">
-        <v>0.0004714557035712065</v>
+        <v>0.0005631653623948216</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -694,30 +736,36 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>21.81253399052801</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>10.50272650965545</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.2682417492750204</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.9395152724082436</v>
+        <v>1.439145425359442</v>
       </c>
       <c r="E9">
-        <v>3.560390312576246</v>
+        <v>4.06299638464013</v>
       </c>
       <c r="F9">
-        <v>13.60129858651516</v>
+        <v>21.65798227571383</v>
       </c>
       <c r="G9">
-        <v>0.0004714557035712065</v>
+        <v>0.0004320639287292388</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -735,30 +783,36 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>21.81253399052801</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>19.4618104795432</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.2682417492750204</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.9395152724082436</v>
+        <v>1.439145425359442</v>
       </c>
       <c r="E10">
-        <v>3.560390312576246</v>
+        <v>4.06299638464013</v>
       </c>
       <c r="F10">
-        <v>13.60129858651516</v>
+        <v>21.65798227571383</v>
       </c>
       <c r="G10">
-        <v>0.0004714557035712065</v>
+        <v>0.0004320639287292388</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -776,30 +830,36 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>21.81253399052801</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>19.4618104795432</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.2682417492750204</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.9395152724082436</v>
+        <v>1.439145425359442</v>
       </c>
       <c r="E11">
-        <v>3.560390312576246</v>
+        <v>4.06299638464013</v>
       </c>
       <c r="F11">
-        <v>13.60129858651516</v>
+        <v>21.65798227571383</v>
       </c>
       <c r="G11">
-        <v>0.0004714557035712065</v>
+        <v>0.0004320639287292388</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -817,30 +877,36 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>21.81253399052801</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>19.4618104795432</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.2682417492750204</v>
+        <v>0</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.9395152724082436</v>
+        <v>1.439145425359442</v>
       </c>
       <c r="E12">
-        <v>3.560390312576246</v>
+        <v>4.06299638464013</v>
       </c>
       <c r="F12">
-        <v>13.60129858651516</v>
+        <v>21.65798227571383</v>
       </c>
       <c r="G12">
-        <v>0.0004714557035712065</v>
+        <v>0.0004320639287292388</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -858,30 +924,36 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>21.81253399052801</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>19.4618104795432</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.2682417492750204</v>
+        <v>0</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.9395152724082436</v>
+        <v>1.439145425359442</v>
       </c>
       <c r="E13">
-        <v>3.560390312576246</v>
+        <v>4.06299638464013</v>
       </c>
       <c r="F13">
-        <v>13.60129858651516</v>
+        <v>21.65798227571383</v>
       </c>
       <c r="G13">
-        <v>0.0004714557035712065</v>
+        <v>0.0004320639287292388</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -899,30 +971,36 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>21.81253399052801</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>19.4618104795432</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.2682417492750204</v>
+        <v>0</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.9395152724082436</v>
+        <v>1.439145425359442</v>
       </c>
       <c r="E14">
-        <v>3.560390312576246</v>
+        <v>4.06299638464013</v>
       </c>
       <c r="F14">
-        <v>13.60129858651516</v>
+        <v>21.65798227571383</v>
       </c>
       <c r="G14">
-        <v>0.0004714557035712065</v>
+        <v>0.0004320639287292388</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -940,30 +1018,36 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>21.81253399052801</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>19.4618104795432</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.2682417492750204</v>
+        <v>0</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.9395152724082436</v>
+        <v>1.439145425359442</v>
       </c>
       <c r="E15">
-        <v>3.560390312576246</v>
+        <v>4.06299638464013</v>
       </c>
       <c r="F15">
-        <v>13.60129858651516</v>
+        <v>21.65798227571383</v>
       </c>
       <c r="G15">
-        <v>0.0004714557035712065</v>
+        <v>0.0004320639287292388</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -981,30 +1065,36 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>21.81253399052801</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>19.4618104795432</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.2682417492750204</v>
+        <v>0</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.9395152724082436</v>
+        <v>1.439145425359442</v>
       </c>
       <c r="E16">
-        <v>3.560390312576246</v>
+        <v>4.06299638464013</v>
       </c>
       <c r="F16">
-        <v>13.60129858651516</v>
+        <v>21.65798227571383</v>
       </c>
       <c r="G16">
-        <v>0.0004714557035712065</v>
+        <v>0.0004320639287292388</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1022,30 +1112,36 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>21.81253399052801</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>19.4618104795432</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.2682417492750204</v>
+        <v>0</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.9395152724082436</v>
+        <v>1.439145425359442</v>
       </c>
       <c r="E17">
-        <v>3.560390312576246</v>
+        <v>4.06299638464013</v>
       </c>
       <c r="F17">
-        <v>13.60129858651516</v>
+        <v>21.65798227571383</v>
       </c>
       <c r="G17">
-        <v>0.0004714557035712065</v>
+        <v>0.0004320639287292388</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1063,30 +1159,36 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>21.81253399052801</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>19.4618104795432</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.2682417492750204</v>
+        <v>0</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.9395152724082436</v>
+        <v>1.439145425359442</v>
       </c>
       <c r="E18">
-        <v>3.560390312576246</v>
+        <v>4.06299638464013</v>
       </c>
       <c r="F18">
-        <v>13.60129858651516</v>
+        <v>21.65798227571383</v>
       </c>
       <c r="G18">
-        <v>0.0004714557035712065</v>
+        <v>0.0004320639287292388</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1104,30 +1206,36 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>21.81253399052801</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>19.4618104795432</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.2682417492750204</v>
+        <v>0</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.9395152724082436</v>
+        <v>1.439145425359442</v>
       </c>
       <c r="E19">
-        <v>3.560390312576246</v>
+        <v>4.06299638464013</v>
       </c>
       <c r="F19">
-        <v>13.60129858651516</v>
+        <v>21.65798227571383</v>
       </c>
       <c r="G19">
-        <v>0.0004714557035712065</v>
+        <v>0.0004320639287292388</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1145,30 +1253,36 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>21.81253399052801</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>19.4618104795432</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.2682417492750204</v>
+        <v>0</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.9395152724082436</v>
+        <v>1.439145425359442</v>
       </c>
       <c r="E20">
-        <v>3.560390312576246</v>
+        <v>4.06299638464013</v>
       </c>
       <c r="F20">
-        <v>13.60129858651516</v>
+        <v>21.65798227571383</v>
       </c>
       <c r="G20">
-        <v>0.0004714557035712065</v>
+        <v>0.0004320639287292388</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1186,30 +1300,36 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>21.81253399052801</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>19.4618104795432</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.2682417492750204</v>
+        <v>0</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.9395152724082436</v>
+        <v>1.439145425359442</v>
       </c>
       <c r="E21">
-        <v>3.560390312576246</v>
+        <v>4.06299638464013</v>
       </c>
       <c r="F21">
-        <v>13.60129858651516</v>
+        <v>21.65798227571383</v>
       </c>
       <c r="G21">
-        <v>0.0004714557035712065</v>
+        <v>0.0004320639287292388</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1227,30 +1347,36 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>21.81253399052801</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>19.4618104795432</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.2682417492750204</v>
+        <v>0</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.9395152724082436</v>
+        <v>1.439145425359442</v>
       </c>
       <c r="E22">
-        <v>3.560390312576246</v>
+        <v>4.06299638464013</v>
       </c>
       <c r="F22">
-        <v>13.60129858651516</v>
+        <v>21.65798227571383</v>
       </c>
       <c r="G22">
-        <v>0.0004714557035712065</v>
+        <v>0.0004320639287292388</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1268,30 +1394,36 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>21.81253399052801</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>19.4618104795432</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.2682417492750204</v>
+        <v>0</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.9395152724082436</v>
+        <v>1.439145425359442</v>
       </c>
       <c r="E23">
-        <v>3.560390312576246</v>
+        <v>4.06299638464013</v>
       </c>
       <c r="F23">
-        <v>13.60129858651516</v>
+        <v>21.65798227571383</v>
       </c>
       <c r="G23">
-        <v>0.0004714557035712065</v>
+        <v>0.0004320639287292388</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1309,30 +1441,36 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>21.81253399052801</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>19.4618104795432</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.2682417492750204</v>
+        <v>0</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.9395152724082436</v>
+        <v>1.439145425359442</v>
       </c>
       <c r="E24">
-        <v>3.560390312576246</v>
+        <v>4.06299638464013</v>
       </c>
       <c r="F24">
-        <v>13.60129858651516</v>
+        <v>21.65798227571383</v>
       </c>
       <c r="G24">
-        <v>0.0004714557035712065</v>
+        <v>0.0004320639287292388</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1350,30 +1488,36 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>21.81253399052801</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>19.4618104795432</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.2682417492750204</v>
+        <v>0</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.9395152724082436</v>
+        <v>1.439145425359442</v>
       </c>
       <c r="E25">
-        <v>3.560390312576246</v>
+        <v>4.06299638464013</v>
       </c>
       <c r="F25">
-        <v>13.60129858651516</v>
+        <v>21.65798227571383</v>
       </c>
       <c r="G25">
-        <v>0.0004714557035712065</v>
+        <v>0.0004320639287292388</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1391,7 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>21.81253399052801</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>19.4618104795432</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_61/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_61/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1.225979116082755</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.8030543808967536</v>
+        <v>0.03860322489296575</v>
       </c>
       <c r="E2">
-        <v>2.162897324989586</v>
+        <v>0.03176771049047566</v>
       </c>
       <c r="F2">
-        <v>12.62232709000267</v>
+        <v>0.9066336464754556</v>
       </c>
       <c r="G2">
-        <v>0.0005502931265490571</v>
+        <v>0.0007631373266663283</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2.297573393554202</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.04561592798884107</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>4.9085844439916</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>11.30068367827556</v>
+        <v>2.884728199476427</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1.065518722707139</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.6428663796791056</v>
+        <v>0.04128339424059746</v>
       </c>
       <c r="E3">
-        <v>1.71683358567202</v>
+        <v>0.03406159133071363</v>
       </c>
       <c r="F3">
-        <v>10.20477380391978</v>
+        <v>0.817207960312814</v>
       </c>
       <c r="G3">
-        <v>0.0005861267239574111</v>
+        <v>0.0007694047380517938</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2.024624873156981</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.04645163754323178</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>4.278451538099191</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>9.128273442625414</v>
+        <v>2.564397207916471</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.9672923900955368</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.5586558940487691</v>
+        <v>0.04302365189120572</v>
       </c>
       <c r="E4">
-        <v>1.485699330385373</v>
+        <v>0.03564449973588246</v>
       </c>
       <c r="F4">
-        <v>8.915594443148223</v>
+        <v>0.7652912641362946</v>
       </c>
       <c r="G4">
-        <v>0.0006063649138320754</v>
+        <v>0.0007733637140695699</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1.858944791108399</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.0472636764429808</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>3.891204180133485</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>7.971182744370765</v>
+        <v>2.376049115770286</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.9273171927992792</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.5266662221934837</v>
+        <v>0.04375613685124158</v>
       </c>
       <c r="E5">
-        <v>1.398436435259427</v>
+        <v>0.03633137239348727</v>
       </c>
       <c r="F5">
-        <v>8.422809272709486</v>
+        <v>0.7448197606285021</v>
       </c>
       <c r="G5">
-        <v>0.0006143532442075964</v>
+        <v>0.0007750058542272866</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1.791855531089155</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.04766508856215168</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>3.733271655478703</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>7.5291132393005</v>
+        <v>2.301191667316033</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.9206819261349892</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.5214703744720168</v>
+        <v>0.04387916004570158</v>
       </c>
       <c r="E6">
-        <v>1.384289656881691</v>
+        <v>0.03644789581035468</v>
       </c>
       <c r="F6">
-        <v>8.342616797947727</v>
+        <v>0.7414599781840394</v>
       </c>
       <c r="G6">
-        <v>0.000615667768781576</v>
+        <v>0.000775280298631051</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1.780739689573636</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.04773587037117366</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>3.707038384402438</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>7.45718509286678</v>
+        <v>2.28887056382311</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.9667530843479426</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.5582162143281266</v>
+        <v>0.04303343665065817</v>
       </c>
       <c r="E7">
-        <v>1.48449800664126</v>
+        <v>0.03565359640296073</v>
       </c>
       <c r="F7">
-        <v>8.908832505664748</v>
+        <v>0.7650124902292106</v>
       </c>
       <c r="G7">
-        <v>0.0006064735195755321</v>
+        <v>0.0007733857425613435</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1.858038342232433</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.04726881050954646</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>3.889074806854808</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>7.965115906878935</v>
+        <v>2.375032140028821</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1.17057699912769</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.7438765011107762</v>
+        <v>0.03950741484694831</v>
       </c>
       <c r="E8">
-        <v>1.997053786313273</v>
+        <v>0.03252116232039448</v>
       </c>
       <c r="F8">
-        <v>11.73478755783165</v>
+        <v>0.8751369555178883</v>
       </c>
       <c r="G8">
-        <v>0.0005631653623948216</v>
+        <v>0.0007652759494949928</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2.203030125642158</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.04583913428912112</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>4.691360368566023</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>10.50272650965545</v>
+        <v>2.772422670608904</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1.573725702774823</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1.439145425359442</v>
+        <v>0.03336609232864962</v>
       </c>
       <c r="E9">
-        <v>4.06299638464013</v>
+        <v>0.02786154388642537</v>
       </c>
       <c r="F9">
-        <v>21.65798227571383</v>
+        <v>1.118118917985058</v>
       </c>
       <c r="G9">
-        <v>0.0004320639287292388</v>
+        <v>0.0007502036922054325</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.897421548805298</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.04563485431635783</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>6.264019892312149</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>19.4618104795432</v>
+        <v>3.627703970664243</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1.873714468351977</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1.439145425359442</v>
+        <v>0.02935803332921161</v>
       </c>
       <c r="E10">
-        <v>4.06299638464013</v>
+        <v>0.02549084158987291</v>
       </c>
       <c r="F10">
-        <v>21.65798227571383</v>
+        <v>1.318154942877101</v>
       </c>
       <c r="G10">
-        <v>0.0004320639287292388</v>
+        <v>0.0007395636856614152</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3.422653701625364</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.04741488307682573</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>7.422485434068534</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>19.4618104795432</v>
+        <v>4.317514113245579</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>2.011431325701381</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1.439145425359442</v>
+        <v>0.02765183604532151</v>
       </c>
       <c r="E11">
-        <v>4.06299638464013</v>
+        <v>0.02467743801936706</v>
       </c>
       <c r="F11">
-        <v>21.65798227571383</v>
+        <v>1.415091137990515</v>
       </c>
       <c r="G11">
-        <v>0.0004320639287292388</v>
+        <v>0.0007347992604555808</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3.665908331194373</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.04872959045729885</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>7.951038435610087</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>19.4618104795432</v>
+        <v>4.648458472556229</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>2.063799245829614</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1.439145425359442</v>
+        <v>0.0270232860460089</v>
       </c>
       <c r="E12">
-        <v>4.06299638464013</v>
+        <v>0.02441092296584024</v>
       </c>
       <c r="F12">
-        <v>21.65798227571383</v>
+        <v>1.452770975476781</v>
       </c>
       <c r="G12">
-        <v>0.0004320639287292388</v>
+        <v>0.0007330043073465822</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.758740388544709</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.04930807154363492</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>8.151493101270603</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>19.4618104795432</v>
+        <v>4.776600904963743</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>2.052510562484144</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>1.439145425359442</v>
+        <v>0.02715786309043189</v>
       </c>
       <c r="E13">
-        <v>4.06299638464013</v>
+        <v>0.02446641842229447</v>
       </c>
       <c r="F13">
-        <v>21.65798227571383</v>
+        <v>1.444610685393513</v>
       </c>
       <c r="G13">
-        <v>0.0004320639287292388</v>
+        <v>0.0007333905005926429</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.738713847508251</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.04917976273140923</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>8.10830676913011</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>19.4618104795432</v>
+        <v>4.748871584835513</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>2.015735077200759</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1.439145425359442</v>
+        <v>0.02759976886440274</v>
       </c>
       <c r="E14">
-        <v>4.06299638464013</v>
+        <v>0.02465465930512067</v>
       </c>
       <c r="F14">
-        <v>21.65798227571383</v>
+        <v>1.418170872432214</v>
       </c>
       <c r="G14">
-        <v>0.0004320639287292388</v>
+        <v>0.0007346514137992848</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.673530735955069</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.04877551763770427</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>7.967523403100984</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>19.4618104795432</v>
+        <v>4.65894211211787</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>1.99323854172826</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>1.439145425359442</v>
+        <v>0.0278727564635437</v>
       </c>
       <c r="E15">
-        <v>4.06299638464013</v>
+        <v>0.02477547335349684</v>
       </c>
       <c r="F15">
-        <v>21.65798227571383</v>
+        <v>1.402106065262146</v>
       </c>
       <c r="G15">
-        <v>0.0004320639287292388</v>
+        <v>0.0007354249093813864</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.633700531397153</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.04853865820400216</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>7.88133149307302</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>19.4618104795432</v>
+        <v>4.604236318188555</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>1.864742653064752</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>1.439145425359442</v>
+        <v>0.02947195321338292</v>
       </c>
       <c r="E16">
-        <v>4.06299638464013</v>
+        <v>0.02554961536594647</v>
       </c>
       <c r="F16">
-        <v>21.65798227571383</v>
+        <v>1.311949251194591</v>
       </c>
       <c r="G16">
-        <v>0.0004320639287292388</v>
+        <v>0.0007398764384649282</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.406851357056013</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.04733979193517612</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>7.387981179423605</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>19.4618104795432</v>
+        <v>4.296260634745465</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>1.786260580159961</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>1.439145425359442</v>
+        <v>0.03048348897199116</v>
       </c>
       <c r="E17">
-        <v>4.06299638464013</v>
+        <v>0.02609472380548539</v>
       </c>
       <c r="F17">
-        <v>21.65798227571383</v>
+        <v>1.258242160363167</v>
       </c>
       <c r="G17">
-        <v>0.0004320639287292388</v>
+        <v>0.0007426255836549322</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.268858875592102</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.04673911269910747</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>7.085779684943248</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>19.4618104795432</v>
+        <v>4.11195980243582</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>1.741235002367659</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>1.439145425359442</v>
+        <v>0.03107627296555027</v>
       </c>
       <c r="E18">
-        <v>4.06299638464013</v>
+        <v>0.02643298171683206</v>
       </c>
       <c r="F18">
-        <v>21.65798227571383</v>
+        <v>1.227902453448309</v>
       </c>
       <c r="G18">
-        <v>0.0004320639287292388</v>
+        <v>0.0007442140603973824</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.189890004992904</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.04644062183069408</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>6.912103094475469</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>19.4618104795432</v>
+        <v>4.007545255943398</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>1.726008815775629</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1.439145425359442</v>
+        <v>0.03127884358695798</v>
       </c>
       <c r="E19">
-        <v>4.06299638464013</v>
+        <v>0.02655165853603414</v>
       </c>
       <c r="F19">
-        <v>21.65798227571383</v>
+        <v>1.217721222719774</v>
       </c>
       <c r="G19">
-        <v>0.0004320639287292388</v>
+        <v>0.0007447531827461114</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.16321858869226</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.04634739967998769</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>6.85332127784929</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>19.4618104795432</v>
+        <v>3.972455243260299</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>1.794602942625659</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>1.439145425359442</v>
+        <v>0.03037466835476454</v>
       </c>
       <c r="E20">
-        <v>4.06299638464013</v>
+        <v>0.02603411348599671</v>
       </c>
       <c r="F20">
-        <v>21.65798227571383</v>
+        <v>1.263901510285152</v>
       </c>
       <c r="G20">
-        <v>0.0004320639287292388</v>
+        <v>0.0007423321945826985</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.283506275723923</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.04679813579946668</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>7.117934342551337</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>19.4618104795432</v>
+        <v>4.131411888978619</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>2.026530706066978</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>1.439145425359442</v>
+        <v>0.02746948818866635</v>
       </c>
       <c r="E21">
-        <v>4.06299638464013</v>
+        <v>0.02459821338002222</v>
       </c>
       <c r="F21">
-        <v>21.65798227571383</v>
+        <v>1.425909493516372</v>
       </c>
       <c r="G21">
-        <v>0.0004320639287292388</v>
+        <v>0.0007342808166121125</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.692656336815872</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.04889199795294985</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>8.008865990894066</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>19.4618104795432</v>
+        <v>4.685276985617975</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>2.179397065776698</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>1.439145425359442</v>
+        <v>0.02567344849868292</v>
       </c>
       <c r="E22">
-        <v>4.06299638464013</v>
+        <v>0.02390349553793492</v>
       </c>
       <c r="F22">
-        <v>21.65798227571383</v>
+        <v>1.53752252016362</v>
       </c>
       <c r="G22">
-        <v>0.0004320639287292388</v>
+        <v>0.0007290716760945731</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.964288848603047</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.05073476500961149</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>8.592951508077164</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>19.4618104795432</v>
+        <v>5.063897636351271</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>2.097678112138226</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>1.439145425359442</v>
+        <v>0.0266223855891301</v>
       </c>
       <c r="E23">
-        <v>4.06299638464013</v>
+        <v>0.02425077203149861</v>
       </c>
       <c r="F23">
-        <v>21.65798227571383</v>
+        <v>1.477385532846895</v>
       </c>
       <c r="G23">
-        <v>0.0004320639287292388</v>
+        <v>0.0007318476500432967</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.818892531255813</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.04970497701788901</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>8.281019979219025</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>19.4618104795432</v>
+        <v>4.860170126747278</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>1.790831068045605</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>1.439145425359442</v>
+        <v>0.03042383120324565</v>
       </c>
       <c r="E24">
-        <v>4.06299638464013</v>
+        <v>0.02606143820621476</v>
       </c>
       <c r="F24">
-        <v>21.65798227571383</v>
+        <v>1.261341253651423</v>
       </c>
       <c r="G24">
-        <v>0.0004320639287292388</v>
+        <v>0.0007424648109124146</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.276883056779909</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.04677130613184843</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>7.103397031207976</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>19.4618104795432</v>
+        <v>4.12261282260215</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>1.464128501112924</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>1.439145425359442</v>
+        <v>0.03494146460495351</v>
       </c>
       <c r="E25">
-        <v>4.06299638464013</v>
+        <v>0.02894873880127591</v>
       </c>
       <c r="F25">
-        <v>21.65798227571383</v>
+        <v>1.04900109903366</v>
       </c>
       <c r="G25">
-        <v>0.0004320639287292388</v>
+        <v>0.0007541993119362949</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.707251075058394</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.04537808353972395</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>5.838311466534066</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>19.4618104795432</v>
+        <v>3.386720742289071</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_61/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_61/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.225979116082755</v>
+        <v>0.4351974890530812</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.03860322489296575</v>
+        <v>0.1560007319877279</v>
       </c>
       <c r="E2">
-        <v>0.03176771049047566</v>
+        <v>0.1217164210942254</v>
       </c>
       <c r="F2">
-        <v>0.9066336464754556</v>
+        <v>1.235639417020593</v>
       </c>
       <c r="G2">
-        <v>0.0007631373266663283</v>
+        <v>0.00242339283234936</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.297573393554202</v>
+        <v>0.9925639220564761</v>
       </c>
       <c r="J2">
-        <v>0.04561592798884107</v>
+        <v>0.1296473592992839</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>4.9085844439916</v>
+        <v>1.885147280768791</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.884728199476427</v>
+        <v>3.122355927703978</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.065518722707139</v>
+        <v>0.3820937015902643</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.04128339424059746</v>
+        <v>0.1580539028583967</v>
       </c>
       <c r="E3">
-        <v>0.03406159133071363</v>
+        <v>0.1240325594675937</v>
       </c>
       <c r="F3">
-        <v>0.817207960312814</v>
+        <v>1.231589265483009</v>
       </c>
       <c r="G3">
-        <v>0.0007694047380517938</v>
+        <v>0.002427497315677646</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2.024624873156981</v>
+        <v>0.9094617385134427</v>
       </c>
       <c r="J3">
-        <v>0.04645163754323178</v>
+        <v>0.1321328220062661</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>4.278451538099191</v>
+        <v>1.67582380016789</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.564397207916471</v>
+        <v>3.085961469642569</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9672923900955368</v>
+        <v>0.3493570768498273</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.04302365189120572</v>
+        <v>0.1593854234050909</v>
       </c>
       <c r="E4">
-        <v>0.03564449973588246</v>
+        <v>0.1255513087736198</v>
       </c>
       <c r="F4">
-        <v>0.7652912641362946</v>
+        <v>1.230175737371752</v>
       </c>
       <c r="G4">
-        <v>0.0007733637140695699</v>
+        <v>0.00243015039618329</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.858944791108399</v>
+        <v>0.8588165632416036</v>
       </c>
       <c r="J4">
-        <v>0.0472636764429808</v>
+        <v>0.1337940835872544</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>3.891204180133485</v>
+        <v>1.546669850851501</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.376049115770286</v>
+        <v>3.066348599718197</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9273171927992792</v>
+        <v>0.3359844396274525</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.04375613685124158</v>
+        <v>0.1599458573185792</v>
       </c>
       <c r="E5">
-        <v>0.03633137239348727</v>
+        <v>0.1261944831075912</v>
       </c>
       <c r="F5">
-        <v>0.7448197606285021</v>
+        <v>1.229868270388323</v>
       </c>
       <c r="G5">
-        <v>0.0007750058542272866</v>
+        <v>0.002431265077957979</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.791855531089155</v>
+        <v>0.838275356550497</v>
       </c>
       <c r="J5">
-        <v>0.04766508856215168</v>
+        <v>0.1345049754737033</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>3.733271655478703</v>
+        <v>1.493885221971723</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.301191667316033</v>
+        <v>3.059039796197055</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9206819261349892</v>
+        <v>0.3337619988598703</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.04387916004570158</v>
+        <v>0.1600399939971631</v>
       </c>
       <c r="E6">
-        <v>0.03644789581035468</v>
+        <v>0.1263027468860329</v>
       </c>
       <c r="F6">
-        <v>0.7414599781840394</v>
+        <v>1.229833397127351</v>
       </c>
       <c r="G6">
-        <v>0.000775280298631051</v>
+        <v>0.00243145219810731</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.780739689573636</v>
+        <v>0.834870418258717</v>
       </c>
       <c r="J6">
-        <v>0.04773587037117366</v>
+        <v>0.134625064646702</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>3.707038384402438</v>
+        <v>1.485111252359175</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.28887056382311</v>
+        <v>3.057867353128927</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9667530843479426</v>
+        <v>0.3491768582516386</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.04303343665065817</v>
+        <v>0.1593929094139312</v>
       </c>
       <c r="E7">
-        <v>0.03565359640296073</v>
+        <v>0.1255598846097641</v>
       </c>
       <c r="F7">
-        <v>0.7650124902292106</v>
+        <v>1.230170505154959</v>
       </c>
       <c r="G7">
-        <v>0.0007733857425613435</v>
+        <v>0.002430165293257044</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.858038342232433</v>
+        <v>0.8585391419827033</v>
       </c>
       <c r="J7">
-        <v>0.04726881050954646</v>
+        <v>0.1338035337102284</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>3.889074806854808</v>
+        <v>1.545958593504167</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.375032140028821</v>
+        <v>3.066247267759508</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.17057699912769</v>
+        <v>0.4169148022052411</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.03950741484694831</v>
+        <v>0.1566939627412474</v>
       </c>
       <c r="E8">
-        <v>0.03252116232039448</v>
+        <v>0.1224949536183892</v>
       </c>
       <c r="F8">
-        <v>0.8751369555178883</v>
+        <v>1.234019360057573</v>
       </c>
       <c r="G8">
-        <v>0.0007652759494949928</v>
+        <v>0.002424780537679588</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.203030125642158</v>
+        <v>0.9638323407655918</v>
       </c>
       <c r="J8">
-        <v>0.04583913428912112</v>
+        <v>0.1304762438869886</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>4.691360368566023</v>
+        <v>1.81310571497815</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.772422670608904</v>
+        <v>3.109237503146943</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.573725702774823</v>
+        <v>0.5486900375022685</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03336609232864962</v>
+        <v>0.1519631498232474</v>
       </c>
       <c r="E9">
-        <v>0.02786154388642537</v>
+        <v>0.117252542249819</v>
       </c>
       <c r="F9">
-        <v>1.118118917985058</v>
+        <v>1.250145241934092</v>
       </c>
       <c r="G9">
-        <v>0.0007502036922054325</v>
+        <v>0.002415270686076605</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2.897421548805298</v>
+        <v>1.173271505546751</v>
       </c>
       <c r="J9">
-        <v>0.04563485431635783</v>
+        <v>0.1250275630467357</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>6.264019892312149</v>
+        <v>2.331815097552919</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.627703970664243</v>
+        <v>3.215408698877297</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.873714468351977</v>
+        <v>0.6448416710211404</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02935803332921161</v>
+        <v>0.1488291612563959</v>
       </c>
       <c r="E10">
-        <v>0.02549084158987291</v>
+        <v>0.1138706766853748</v>
       </c>
       <c r="F10">
-        <v>1.318154942877101</v>
+        <v>1.267312135969036</v>
       </c>
       <c r="G10">
-        <v>0.0007395636856614152</v>
+        <v>0.002408916730739312</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>3.422653701625364</v>
+        <v>1.328898680605164</v>
       </c>
       <c r="J10">
-        <v>0.04741488307682573</v>
+        <v>0.121685471592393</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>7.422485434068534</v>
+        <v>2.70956248262894</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>4.317514113245579</v>
+        <v>3.307004232304052</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.011431325701381</v>
+        <v>0.6884366492348022</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.02765183604532151</v>
+        <v>0.1474774688590266</v>
       </c>
       <c r="E11">
-        <v>0.02467743801936706</v>
+        <v>0.1124345339683241</v>
       </c>
       <c r="F11">
-        <v>1.415091137990515</v>
+        <v>1.276296414246247</v>
       </c>
       <c r="G11">
-        <v>0.0007347992604555808</v>
+        <v>0.002406162102392108</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>3.665908331194373</v>
+        <v>1.400069516993454</v>
       </c>
       <c r="J11">
-        <v>0.04872959045729885</v>
+        <v>0.1203097344800739</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>7.951038435610087</v>
+        <v>2.8806439028169</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>4.648458472556229</v>
+        <v>3.351681870514085</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.063799245829614</v>
+        <v>0.7049236853720799</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.0270232860460089</v>
+        <v>0.1469762460676485</v>
       </c>
       <c r="E12">
-        <v>0.02441092296584024</v>
+        <v>0.1119054465612255</v>
       </c>
       <c r="F12">
-        <v>1.452770975476781</v>
+        <v>1.279869022042405</v>
       </c>
       <c r="G12">
-        <v>0.0007330043073465822</v>
+        <v>0.002405138413651761</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>3.758740388544709</v>
+        <v>1.427073043764551</v>
       </c>
       <c r="J12">
-        <v>0.04930807154363492</v>
+        <v>0.1198096688726906</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>8.151493101270603</v>
+        <v>2.945315102675835</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>4.776600904963743</v>
+        <v>3.369037422755241</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.052510562484144</v>
+        <v>0.7013738698407792</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.02715786309043189</v>
+        <v>0.1470837204814597</v>
       </c>
       <c r="E13">
-        <v>0.02446641842229447</v>
+        <v>0.1120187383999607</v>
       </c>
       <c r="F13">
-        <v>1.444610685393513</v>
+        <v>1.279091992009469</v>
       </c>
       <c r="G13">
-        <v>0.0007333905005926429</v>
+        <v>0.002405358020806316</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>3.738713847508251</v>
+        <v>1.421255028041799</v>
       </c>
       <c r="J13">
-        <v>0.04917976273140923</v>
+        <v>0.1199164359166076</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>8.10830676913011</v>
+        <v>2.931392129230318</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>4.748871584835513</v>
+        <v>3.365280086557107</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.015735077200759</v>
+        <v>0.6897934805895716</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.02759976886440274</v>
+        <v>0.1474360198614502</v>
       </c>
       <c r="E14">
-        <v>0.02465465930512067</v>
+        <v>0.1123907098102688</v>
       </c>
       <c r="F14">
-        <v>1.418170872432214</v>
+        <v>1.27658691003532</v>
       </c>
       <c r="G14">
-        <v>0.0007346514137992848</v>
+        <v>0.002406077494166168</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>3.673530735955069</v>
+        <v>1.402290064796148</v>
       </c>
       <c r="J14">
-        <v>0.04877551763770427</v>
+        <v>0.1202681743914411</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>7.967523403100984</v>
+        <v>2.885966744854215</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>4.65894211211787</v>
+        <v>3.35310093788911</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.99323854172826</v>
+        <v>0.6826973487570172</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.0278727564635437</v>
+        <v>0.1476531981285945</v>
       </c>
       <c r="E15">
-        <v>0.02477547335349684</v>
+        <v>0.1126204749596589</v>
       </c>
       <c r="F15">
-        <v>1.402106065262146</v>
+        <v>1.275074718027057</v>
       </c>
       <c r="G15">
-        <v>0.0007354249093813864</v>
+        <v>0.002406520719511523</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>3.633700531397153</v>
+        <v>1.390680300234322</v>
       </c>
       <c r="J15">
-        <v>0.04853865820400216</v>
+        <v>0.1204863487662493</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>7.88133149307302</v>
+        <v>2.858127451743428</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>4.604236318188555</v>
+        <v>3.345697906448038</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.864742653064752</v>
+        <v>0.6419896692275699</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.02947195321338292</v>
+        <v>0.1489189857772555</v>
       </c>
       <c r="E16">
-        <v>0.02554961536594647</v>
+        <v>0.1139665936429566</v>
       </c>
       <c r="F16">
-        <v>1.311949251194591</v>
+        <v>1.2667487635036</v>
       </c>
       <c r="G16">
-        <v>0.0007398764384649282</v>
+        <v>0.002409099476505016</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>3.406851357056013</v>
+        <v>1.324254938575422</v>
       </c>
       <c r="J16">
-        <v>0.04733979193517612</v>
+        <v>0.1217782976907742</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>7.387981179423605</v>
+        <v>2.698366261453174</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>4.296260634745465</v>
+        <v>3.304145379504803</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.786260580159961</v>
+        <v>0.6169792821976898</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.03048348897199116</v>
+        <v>0.1497144495604346</v>
       </c>
       <c r="E17">
-        <v>0.02609472380548539</v>
+        <v>0.1148186198288421</v>
       </c>
       <c r="F17">
-        <v>1.258242160363167</v>
+        <v>1.261943061508362</v>
       </c>
       <c r="G17">
-        <v>0.0007426255836549322</v>
+        <v>0.002410716174514034</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>3.268858875592102</v>
+        <v>1.283600304264809</v>
       </c>
       <c r="J17">
-        <v>0.04673911269910747</v>
+        <v>0.1226079740847936</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>7.085779684943248</v>
+        <v>2.600160525546784</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>4.11195980243582</v>
+        <v>3.279428268246818</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.741235002367659</v>
+        <v>0.602580366464764</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.03107627296555027</v>
+        <v>0.1501789423604798</v>
       </c>
       <c r="E18">
-        <v>0.02643298171683206</v>
+        <v>0.1153183078402353</v>
       </c>
       <c r="F18">
-        <v>1.227902453448309</v>
+        <v>1.259289452860273</v>
       </c>
       <c r="G18">
-        <v>0.0007442140603973824</v>
+        <v>0.002411658846273048</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>3.189890004992904</v>
+        <v>1.260252226694902</v>
       </c>
       <c r="J18">
-        <v>0.04644062183069408</v>
+        <v>0.123098785851667</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>6.912103094475469</v>
+        <v>2.54360413261864</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>4.007545255943398</v>
+        <v>3.265494736748792</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.726008815775629</v>
+        <v>0.5977028235047328</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.03127884358695798</v>
+        <v>0.1503374076683208</v>
       </c>
       <c r="E19">
-        <v>0.02655165853603414</v>
+        <v>0.1154891455187794</v>
       </c>
       <c r="F19">
-        <v>1.217721222719774</v>
+        <v>1.258409920230534</v>
       </c>
       <c r="G19">
-        <v>0.0007447531827461114</v>
+        <v>0.002411980218557659</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>3.16321858869226</v>
+        <v>1.252353087927347</v>
       </c>
       <c r="J19">
-        <v>0.04634739967998769</v>
+        <v>0.1232672996434303</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>6.85332127784929</v>
+        <v>2.524443049930682</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>3.972455243260299</v>
+        <v>3.26082557659123</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.794602942625659</v>
+        <v>0.6196430928468715</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.03037466835476454</v>
+        <v>0.1496290504609075</v>
       </c>
       <c r="E20">
-        <v>0.02603411348599671</v>
+        <v>0.1147269237424009</v>
       </c>
       <c r="F20">
-        <v>1.263901510285152</v>
+        <v>1.262443189150886</v>
       </c>
       <c r="G20">
-        <v>0.0007423321945826985</v>
+        <v>0.002410542751275892</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>3.283506275723923</v>
+        <v>1.287924406012252</v>
       </c>
       <c r="J20">
-        <v>0.04679813579946668</v>
+        <v>0.1225182449339286</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>7.117934342551337</v>
+        <v>2.610622081279246</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>4.131411888978619</v>
+        <v>3.282030117089164</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.026530706066978</v>
+        <v>0.6931955080657417</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.02746948818866635</v>
+        <v>0.1473322524256417</v>
       </c>
       <c r="E21">
-        <v>0.02459821338002222</v>
+        <v>0.1122810521908253</v>
       </c>
       <c r="F21">
-        <v>1.425909493516372</v>
+        <v>1.277318075224571</v>
       </c>
       <c r="G21">
-        <v>0.0007342808166121125</v>
+        <v>0.002405865640789572</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>3.692656336815872</v>
+        <v>1.407859114497199</v>
       </c>
       <c r="J21">
-        <v>0.04889199795294985</v>
+        <v>0.1201642923244037</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>8.008865990894066</v>
+        <v>2.899312401701195</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>4.685276985617975</v>
+        <v>3.356666352612194</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.179397065776698</v>
+        <v>0.7411410562544916</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.02567344849868292</v>
+        <v>0.1458931422867238</v>
       </c>
       <c r="E22">
-        <v>0.02390349553793492</v>
+        <v>0.1107685195383361</v>
       </c>
       <c r="F22">
-        <v>1.53752252016362</v>
+        <v>1.288033924653149</v>
       </c>
       <c r="G22">
-        <v>0.0007290716760945731</v>
+        <v>0.002402922081295941</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>3.964288848603047</v>
+        <v>1.486549868865495</v>
       </c>
       <c r="J22">
-        <v>0.05073476500961149</v>
+        <v>0.1187476966377687</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>8.592951508077164</v>
+        <v>3.087323843521546</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>5.063897636351271</v>
+        <v>3.407995174022005</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.097678112138226</v>
+        <v>0.7155632637869189</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.0266223855891301</v>
+        <v>0.1466555524732396</v>
       </c>
       <c r="E23">
-        <v>0.02425077203149861</v>
+        <v>0.111567905472155</v>
       </c>
       <c r="F23">
-        <v>1.477385532846895</v>
+        <v>1.282223203531174</v>
       </c>
       <c r="G23">
-        <v>0.0007318476500432967</v>
+        <v>0.002404482789654791</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>3.818892531255813</v>
+        <v>1.444523494264615</v>
       </c>
       <c r="J23">
-        <v>0.04970497701788901</v>
+        <v>0.1194925765825516</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>8.281019979219025</v>
+        <v>2.987040905173757</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>4.860170126747278</v>
+        <v>3.380365317808184</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.790831068045605</v>
+        <v>0.6184388466499797</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.03042383120324565</v>
+        <v>0.149667637059423</v>
       </c>
       <c r="E24">
-        <v>0.02606143820621476</v>
+        <v>0.1147683488735183</v>
       </c>
       <c r="F24">
-        <v>1.261341253651423</v>
+        <v>1.262216741242014</v>
       </c>
       <c r="G24">
-        <v>0.0007424648109124146</v>
+        <v>0.00241062111480133</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>3.276883056779909</v>
+        <v>1.285969402226129</v>
       </c>
       <c r="J24">
-        <v>0.04677130613184843</v>
+        <v>0.1225587684422962</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>7.103397031207976</v>
+        <v>2.605892712495148</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>4.12261282260215</v>
+        <v>3.280852959759386</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.464128501112924</v>
+        <v>0.5131566668782455</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.03494146460495351</v>
+        <v>0.1531828924361758</v>
       </c>
       <c r="E25">
-        <v>0.02894873880127591</v>
+        <v>0.1185883816168491</v>
       </c>
       <c r="F25">
-        <v>1.04900109903366</v>
+        <v>1.244855155769315</v>
       </c>
       <c r="G25">
-        <v>0.0007541993119362949</v>
+        <v>0.002417731702870642</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>2.707251075058394</v>
+        <v>1.116301487558587</v>
       </c>
       <c r="J25">
-        <v>0.04537808353972395</v>
+        <v>0.1263858584964233</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>5.838311466534066</v>
+        <v>2.192064399784016</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>3.386720742289071</v>
+        <v>3.18431865987867</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_61/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_61/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.4351974890530812</v>
+        <v>1.225979116082584</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1560007319877279</v>
+        <v>0.03860322489273393</v>
       </c>
       <c r="E2">
-        <v>0.1217164210942254</v>
+        <v>0.03176771049048632</v>
       </c>
       <c r="F2">
-        <v>1.235639417020593</v>
+        <v>0.9066336464754841</v>
       </c>
       <c r="G2">
-        <v>0.00242339283234936</v>
+        <v>0.0007631373266706676</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.9925639220564761</v>
+        <v>2.297573393554217</v>
       </c>
       <c r="J2">
-        <v>0.1296473592992839</v>
+        <v>0.04561592798876646</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>1.885147280768791</v>
+        <v>4.908584443991543</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>3.122355927703978</v>
+        <v>2.884728199476427</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3820937015902643</v>
+        <v>1.065518722707225</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1580539028583967</v>
+        <v>0.04128339424065874</v>
       </c>
       <c r="E3">
-        <v>0.1240325594675937</v>
+        <v>0.0340615913307154</v>
       </c>
       <c r="F3">
-        <v>1.231589265483009</v>
+        <v>0.8172079603127997</v>
       </c>
       <c r="G3">
-        <v>0.002427497315677646</v>
+        <v>0.0007694047380201287</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.9094617385134427</v>
+        <v>2.024624873156981</v>
       </c>
       <c r="J3">
-        <v>0.1321328220062661</v>
+        <v>0.04645163754320691</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>1.67582380016789</v>
+        <v>4.278451538099176</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>3.085961469642569</v>
+        <v>2.5643972079165</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3493570768498273</v>
+        <v>0.9672923900957642</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1593854234050909</v>
+        <v>0.04302365189120394</v>
       </c>
       <c r="E4">
-        <v>0.1255513087736198</v>
+        <v>0.03564449973587003</v>
       </c>
       <c r="F4">
-        <v>1.230175737371752</v>
+        <v>0.7652912641362946</v>
       </c>
       <c r="G4">
-        <v>0.00243015039618329</v>
+        <v>0.0007733637140109421</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.8588165632416036</v>
+        <v>1.858944791108385</v>
       </c>
       <c r="J4">
-        <v>0.1337940835872544</v>
+        <v>0.04726367644298435</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>1.546669850851501</v>
+        <v>3.891204180133499</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>3.066348599718197</v>
+        <v>2.376049115770257</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3359844396274525</v>
+        <v>0.9273171927993928</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1599458573185792</v>
+        <v>0.04375613685123625</v>
       </c>
       <c r="E5">
-        <v>0.1261944831075912</v>
+        <v>0.03633137239350148</v>
       </c>
       <c r="F5">
-        <v>1.229868270388323</v>
+        <v>0.7448197606285021</v>
       </c>
       <c r="G5">
-        <v>0.002431265077957979</v>
+        <v>0.0007750058542268981</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.838275356550497</v>
+        <v>1.791855531089169</v>
       </c>
       <c r="J5">
-        <v>0.1345049754737033</v>
+        <v>0.04766508856216589</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>1.493885221971723</v>
+        <v>3.733271655478717</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>3.059039796197055</v>
+        <v>2.301191667316033</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3337619988598703</v>
+        <v>0.9206819261347903</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1600399939971631</v>
+        <v>0.04387916004581172</v>
       </c>
       <c r="E6">
-        <v>0.1263027468860329</v>
+        <v>0.0364478958103529</v>
       </c>
       <c r="F6">
-        <v>1.229833397127351</v>
+        <v>0.7414599781840394</v>
       </c>
       <c r="G6">
-        <v>0.00243145219810731</v>
+        <v>0.0007752802986015988</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.834870418258717</v>
+        <v>1.780739689573608</v>
       </c>
       <c r="J6">
-        <v>0.134625064646702</v>
+        <v>0.04773587037113813</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>1.485111252359175</v>
+        <v>3.707038384402424</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>3.057867353128927</v>
+        <v>2.288870563823139</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.3491768582516386</v>
+        <v>0.9667530843483974</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1593929094139312</v>
+        <v>0.04303343665076564</v>
       </c>
       <c r="E7">
-        <v>0.1255598846097641</v>
+        <v>0.03565359640295718</v>
       </c>
       <c r="F7">
-        <v>1.230170505154959</v>
+        <v>0.7650124902292106</v>
       </c>
       <c r="G7">
-        <v>0.002430165293257044</v>
+        <v>0.0007733857425321862</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.8585391419827033</v>
+        <v>1.858038342232447</v>
       </c>
       <c r="J7">
-        <v>0.1338035337102284</v>
+        <v>0.04726881050954646</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>1.545958593504167</v>
+        <v>3.889074806854879</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>3.066247267759508</v>
+        <v>2.37503214002885</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.4169148022052411</v>
+        <v>1.170576999127917</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1566939627412474</v>
+        <v>0.03950741484706022</v>
       </c>
       <c r="E8">
-        <v>0.1224949536183892</v>
+        <v>0.03252116232037494</v>
       </c>
       <c r="F8">
-        <v>1.234019360057573</v>
+        <v>0.8751369555178741</v>
       </c>
       <c r="G8">
-        <v>0.002424780537679588</v>
+        <v>0.0007652759494332042</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.9638323407655918</v>
+        <v>2.203030125642115</v>
       </c>
       <c r="J8">
-        <v>0.1304762438869886</v>
+        <v>0.04583913428920283</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>1.81310571497815</v>
+        <v>4.691360368565967</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>3.109237503146943</v>
+        <v>2.772422670608933</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.5486900375022685</v>
+        <v>1.573725702774425</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1519631498232474</v>
+        <v>0.03336609232849952</v>
       </c>
       <c r="E9">
-        <v>0.117252542249819</v>
+        <v>0.02786154388642714</v>
       </c>
       <c r="F9">
-        <v>1.250145241934092</v>
+        <v>1.118118917985043</v>
       </c>
       <c r="G9">
-        <v>0.002415270686076605</v>
+        <v>0.0007502036922426555</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.173271505546751</v>
+        <v>2.897421548805326</v>
       </c>
       <c r="J9">
-        <v>0.1250275630467357</v>
+        <v>0.04563485431635783</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>2.331815097552919</v>
+        <v>6.264019892312149</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.215408698877297</v>
+        <v>3.627703970664356</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.6448416710211404</v>
+        <v>1.873714468352716</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1488291612563959</v>
+        <v>0.02935803332920983</v>
       </c>
       <c r="E10">
-        <v>0.1138706766853748</v>
+        <v>0.02549084158986759</v>
       </c>
       <c r="F10">
-        <v>1.267312135969036</v>
+        <v>1.318154942877086</v>
       </c>
       <c r="G10">
-        <v>0.002408916730739312</v>
+        <v>0.000739563685661501</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.328898680605164</v>
+        <v>3.42265370162545</v>
       </c>
       <c r="J10">
-        <v>0.121685471592393</v>
+        <v>0.04741488307682573</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>2.70956248262894</v>
+        <v>7.422485434068477</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.307004232304052</v>
+        <v>4.317514113245579</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.6884366492348022</v>
+        <v>2.011431325700698</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1474774688590266</v>
+        <v>0.02765183604534727</v>
       </c>
       <c r="E11">
-        <v>0.1124345339683241</v>
+        <v>0.02467743801938838</v>
       </c>
       <c r="F11">
-        <v>1.276296414246247</v>
+        <v>1.41509113799053</v>
       </c>
       <c r="G11">
-        <v>0.002406162102392108</v>
+        <v>0.0007347992605245714</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.400069516993454</v>
+        <v>3.665908331194373</v>
       </c>
       <c r="J11">
-        <v>0.1203097344800739</v>
+        <v>0.04872959045724201</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>2.8806439028169</v>
+        <v>7.951038435610059</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>3.351681870514085</v>
+        <v>4.648458472556172</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.7049236853720799</v>
+        <v>2.063799245829216</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1469762460676485</v>
+        <v>0.0270232860460089</v>
       </c>
       <c r="E12">
-        <v>0.1119054465612255</v>
+        <v>0.02441092296582781</v>
       </c>
       <c r="F12">
-        <v>1.279869022042405</v>
+        <v>1.452770975476781</v>
       </c>
       <c r="G12">
-        <v>0.002405138413651761</v>
+        <v>0.0007330043073735667</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.427073043764551</v>
+        <v>3.758740388544709</v>
       </c>
       <c r="J12">
-        <v>0.1198096688726906</v>
+        <v>0.04930807154363137</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>2.945315102675835</v>
+        <v>8.15149310127066</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>3.369037422755241</v>
+        <v>4.776600904963743</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.7013738698407792</v>
+        <v>2.052510562483803</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1470837204814597</v>
+        <v>0.02715786309032175</v>
       </c>
       <c r="E13">
-        <v>0.1120187383999607</v>
+        <v>0.02446641842230868</v>
       </c>
       <c r="F13">
-        <v>1.279091992009469</v>
+        <v>1.444610685393499</v>
       </c>
       <c r="G13">
-        <v>0.002405358020806316</v>
+        <v>0.0007333905005506764</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.421255028041799</v>
+        <v>3.738713847508222</v>
       </c>
       <c r="J13">
-        <v>0.1199164359166076</v>
+        <v>0.04917976273144475</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>2.931392129230318</v>
+        <v>8.108306769130138</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3.365280086557107</v>
+        <v>4.74887158483557</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.6897934805895716</v>
+        <v>2.015735077200702</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1474360198614502</v>
+        <v>0.02759976886451732</v>
       </c>
       <c r="E14">
-        <v>0.1123907098102688</v>
+        <v>0.02465465930510646</v>
       </c>
       <c r="F14">
-        <v>1.27658691003532</v>
+        <v>1.418170872432214</v>
       </c>
       <c r="G14">
-        <v>0.002406077494166168</v>
+        <v>0.0007346514137999919</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.402290064796148</v>
+        <v>3.673530735955069</v>
       </c>
       <c r="J14">
-        <v>0.1202681743914411</v>
+        <v>0.04877551763767585</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>2.885966744854215</v>
+        <v>7.967523403101012</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>3.35310093788911</v>
+        <v>4.65894211211787</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.6826973487570172</v>
+        <v>1.993238541728488</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1476531981285945</v>
+        <v>0.02787275646351084</v>
       </c>
       <c r="E15">
-        <v>0.1126204749596589</v>
+        <v>0.02477547335346131</v>
       </c>
       <c r="F15">
-        <v>1.275074718027057</v>
+        <v>1.402106065262132</v>
       </c>
       <c r="G15">
-        <v>0.002406520719511523</v>
+        <v>0.0007354249093398966</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.390680300234322</v>
+        <v>3.633700531397153</v>
       </c>
       <c r="J15">
-        <v>0.1204863487662493</v>
+        <v>0.04853865820400216</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>2.858127451743428</v>
+        <v>7.881331493073048</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>3.345697906448038</v>
+        <v>4.604236318188555</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.6419896692275699</v>
+        <v>1.864742653064951</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1489189857772555</v>
+        <v>0.02947195321338558</v>
       </c>
       <c r="E16">
-        <v>0.1139665936429566</v>
+        <v>0.0255496153659287</v>
       </c>
       <c r="F16">
-        <v>1.2667487635036</v>
+        <v>1.311949251194577</v>
       </c>
       <c r="G16">
-        <v>0.002409099476505016</v>
+        <v>0.0007398764384374536</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.324254938575422</v>
+        <v>3.406851357055984</v>
       </c>
       <c r="J16">
-        <v>0.1217782976907742</v>
+        <v>0.04733979193525073</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>2.698366261453174</v>
+        <v>7.387981179423605</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>3.304145379504803</v>
+        <v>4.296260634745465</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.6169792821976898</v>
+        <v>1.786260580159961</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1497144495604346</v>
+        <v>0.03048348897187125</v>
       </c>
       <c r="E17">
-        <v>0.1148186198288421</v>
+        <v>0.02609472380549427</v>
       </c>
       <c r="F17">
-        <v>1.261943061508362</v>
+        <v>1.258242160363181</v>
       </c>
       <c r="G17">
-        <v>0.002410716174514034</v>
+        <v>0.0007426255837099993</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.283600304264809</v>
+        <v>3.268858875592159</v>
       </c>
       <c r="J17">
-        <v>0.1226079740847936</v>
+        <v>0.04673911269909325</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>2.600160525546784</v>
+        <v>7.085779684943248</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>3.279428268246818</v>
+        <v>4.111959802435877</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.602580366464764</v>
+        <v>1.741235002367688</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1501789423604798</v>
+        <v>0.03107627296569593</v>
       </c>
       <c r="E18">
-        <v>0.1153183078402353</v>
+        <v>0.02643298171683384</v>
       </c>
       <c r="F18">
-        <v>1.259289452860273</v>
+        <v>1.227902453448294</v>
       </c>
       <c r="G18">
-        <v>0.002411658846273048</v>
+        <v>0.0007442140603694402</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.260252226694902</v>
+        <v>3.189890004992904</v>
       </c>
       <c r="J18">
-        <v>0.123098785851667</v>
+        <v>0.04644062183072251</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>2.54360413261864</v>
+        <v>6.912103094475498</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>3.265494736748792</v>
+        <v>4.007545255943398</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.5977028235047328</v>
+        <v>1.726008815775714</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1503374076683208</v>
+        <v>0.03127884358688071</v>
       </c>
       <c r="E19">
-        <v>0.1154891455187794</v>
+        <v>0.02655165853601638</v>
       </c>
       <c r="F19">
-        <v>1.258409920230534</v>
+        <v>1.217721222719774</v>
       </c>
       <c r="G19">
-        <v>0.002411980218557659</v>
+        <v>0.0007447531827632411</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.252353087927347</v>
+        <v>3.16321858869226</v>
       </c>
       <c r="J19">
-        <v>0.1232672996434303</v>
+        <v>0.04634739967998414</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>2.524443049930682</v>
+        <v>6.853321277849318</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>3.26082557659123</v>
+        <v>3.972455243260413</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.6196430928468715</v>
+        <v>1.794602942625716</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1496290504609075</v>
+        <v>0.03037466835488178</v>
       </c>
       <c r="E20">
-        <v>0.1147269237424009</v>
+        <v>0.02603411348598783</v>
       </c>
       <c r="F20">
-        <v>1.262443189150886</v>
+        <v>1.263901510285137</v>
       </c>
       <c r="G20">
-        <v>0.002410542751275892</v>
+        <v>0.0007423321945833513</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.287924406012252</v>
+        <v>3.283506275723866</v>
       </c>
       <c r="J20">
-        <v>0.1225182449339286</v>
+        <v>0.04679813579941339</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>2.610622081279246</v>
+        <v>7.117934342551365</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.282030117089164</v>
+        <v>4.131411888978505</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.6931955080657417</v>
+        <v>2.026530706066865</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1473322524256417</v>
+        <v>0.02746948818858286</v>
       </c>
       <c r="E21">
-        <v>0.1122810521908253</v>
+        <v>0.02459821338000623</v>
       </c>
       <c r="F21">
-        <v>1.277318075224571</v>
+        <v>1.425909493516372</v>
       </c>
       <c r="G21">
-        <v>0.002405865640789572</v>
+        <v>0.000734280816584925</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.407859114497199</v>
+        <v>3.692656336815901</v>
       </c>
       <c r="J21">
-        <v>0.1201642923244037</v>
+        <v>0.04889199795295696</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>2.899312401701195</v>
+        <v>8.008865990894094</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>3.356666352612194</v>
+        <v>4.685276985617918</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.7411410562544916</v>
+        <v>2.179397065776698</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1458931422867238</v>
+        <v>0.02567344849867936</v>
       </c>
       <c r="E22">
-        <v>0.1107685195383361</v>
+        <v>0.02390349553793136</v>
       </c>
       <c r="F22">
-        <v>1.288033924653149</v>
+        <v>1.537522520163648</v>
       </c>
       <c r="G22">
-        <v>0.002402922081295941</v>
+        <v>0.0007290716761090137</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.486549868865495</v>
+        <v>3.96428884860299</v>
       </c>
       <c r="J22">
-        <v>0.1187476966377687</v>
+        <v>0.0507347650095511</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>3.087323843521546</v>
+        <v>8.592951508077107</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.407995174022005</v>
+        <v>5.063897636351271</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.7155632637869189</v>
+        <v>2.097678112137999</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1466555524732396</v>
+        <v>0.02662238558913099</v>
       </c>
       <c r="E23">
-        <v>0.111567905472155</v>
+        <v>0.02425077203148618</v>
       </c>
       <c r="F23">
-        <v>1.282223203531174</v>
+        <v>1.47738553284691</v>
       </c>
       <c r="G23">
-        <v>0.002404482789654791</v>
+        <v>0.000731847650043495</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.444523494264615</v>
+        <v>3.818892531255869</v>
       </c>
       <c r="J23">
-        <v>0.1194925765825516</v>
+        <v>0.04970497701783927</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>2.987040905173757</v>
+        <v>8.281019979219053</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>3.380365317808184</v>
+        <v>4.860170126747278</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.6184388466499797</v>
+        <v>1.790831068045236</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.149667637059423</v>
+        <v>0.0304238312032421</v>
       </c>
       <c r="E24">
-        <v>0.1147683488735183</v>
+        <v>0.026061438206197</v>
       </c>
       <c r="F24">
-        <v>1.262216741242014</v>
+        <v>1.261341253651423</v>
       </c>
       <c r="G24">
-        <v>0.00241062111480133</v>
+        <v>0.0007424648109009793</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.285969402226129</v>
+        <v>3.276883056779909</v>
       </c>
       <c r="J24">
-        <v>0.1225587684422962</v>
+        <v>0.04677130613185554</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>2.605892712495148</v>
+        <v>7.103397031208033</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.280852959759386</v>
+        <v>4.122612822602093</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.5131566668782455</v>
+        <v>1.464128501113152</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1531828924361758</v>
+        <v>0.03494146460479985</v>
       </c>
       <c r="E25">
-        <v>0.1185883816168491</v>
+        <v>0.0289487388012919</v>
       </c>
       <c r="F25">
-        <v>1.244855155769315</v>
+        <v>1.049001099033674</v>
       </c>
       <c r="G25">
-        <v>0.002417731702870642</v>
+        <v>0.000754199312037385</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.116301487558587</v>
+        <v>2.70725107505838</v>
       </c>
       <c r="J25">
-        <v>0.1263858584964233</v>
+        <v>0.04537808353969552</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>2.192064399784016</v>
+        <v>5.838311466534179</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>3.18431865987867</v>
+        <v>3.386720742289071</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_61/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_61/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.225979116082584</v>
+        <v>3.382579823018773</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.03860322489273393</v>
+        <v>0.004883557784292947</v>
       </c>
       <c r="E2">
-        <v>0.03176771049048632</v>
+        <v>1.548008277558765</v>
       </c>
       <c r="F2">
-        <v>0.9066336464754841</v>
+        <v>0.9813916079176153</v>
       </c>
       <c r="G2">
-        <v>0.0007631373266706676</v>
+        <v>0.9484193012768998</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.03479075568835466</v>
       </c>
       <c r="I2">
-        <v>2.297573393554217</v>
+        <v>0.00226091685459906</v>
       </c>
       <c r="J2">
-        <v>0.04561592798876646</v>
+        <v>0.4972864804997528</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>11.52412880593573</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>4.908584443991543</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.884728199476427</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>3.005438779866893</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.065518722707225</v>
+        <v>2.948045210902649</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.04128339424065874</v>
+        <v>0.004211768913815916</v>
       </c>
       <c r="E3">
-        <v>0.0340615913307154</v>
+        <v>1.359674680681266</v>
       </c>
       <c r="F3">
-        <v>0.8172079603127997</v>
+        <v>0.8569708652808572</v>
       </c>
       <c r="G3">
-        <v>0.0007694047380201287</v>
+        <v>0.824336075651587</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.0284566687151524</v>
       </c>
       <c r="I3">
-        <v>2.024624873156981</v>
+        <v>0.003740881385943418</v>
       </c>
       <c r="J3">
-        <v>0.04645163754320691</v>
+        <v>0.4418500226789632</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>10.07224184298005</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>4.278451538099176</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.5643972079165</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>2.626030995826397</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9672923900957642</v>
+        <v>2.681048148417744</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.04302365189120394</v>
+        <v>0.003801446747077719</v>
       </c>
       <c r="E4">
-        <v>0.03564449973587003</v>
+        <v>1.244350362081462</v>
       </c>
       <c r="F4">
-        <v>0.7652912641362946</v>
+        <v>0.7812934730058316</v>
       </c>
       <c r="G4">
-        <v>0.0007733637140109421</v>
+        <v>0.7487872568049738</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.02476922935772552</v>
       </c>
       <c r="I4">
-        <v>1.858944791108385</v>
+        <v>0.004900121160077653</v>
       </c>
       <c r="J4">
-        <v>0.04726367644298435</v>
+        <v>0.4081999535311809</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>9.189783335065925</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>3.891204180133499</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.376049115770257</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>2.395229030700079</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9273171927993928</v>
+        <v>2.572190666577455</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.04375613685123625</v>
+        <v>0.003634773241209643</v>
       </c>
       <c r="E5">
-        <v>0.03633137239350148</v>
+        <v>1.197406529506992</v>
       </c>
       <c r="F5">
-        <v>0.7448197606285021</v>
+        <v>0.7506120612244445</v>
       </c>
       <c r="G5">
-        <v>0.0007750058542268981</v>
+        <v>0.7181384307496046</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.02331164673859365</v>
       </c>
       <c r="I5">
-        <v>1.791855531089169</v>
+        <v>0.005492125352045463</v>
       </c>
       <c r="J5">
-        <v>0.04766508856216589</v>
+        <v>0.3945744424996747</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>8.853051793186836</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>3.733271655478717</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.301191667316033</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>2.301647509455591</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9206819261347903</v>
+        <v>2.554139934485761</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.04387916004581172</v>
+        <v>0.003607129421569155</v>
       </c>
       <c r="E6">
-        <v>0.0364478958103529</v>
+        <v>1.189613904579772</v>
       </c>
       <c r="F6">
-        <v>0.7414599781840394</v>
+        <v>0.7455263244338539</v>
       </c>
       <c r="G6">
-        <v>0.0007752802986015988</v>
+        <v>0.7130569078675109</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.02307217882041934</v>
       </c>
       <c r="I6">
-        <v>1.780739689573608</v>
+        <v>0.005678592604683175</v>
       </c>
       <c r="J6">
-        <v>0.04773587037113813</v>
+        <v>0.3923169074572996</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>8.822774377572443</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>3.707038384402424</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.288870563823139</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>2.28613491494545</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9667530843483974</v>
+        <v>2.679674505376852</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.04303343665076564</v>
+        <v>0.003799196767758417</v>
       </c>
       <c r="E7">
-        <v>0.03565359640295718</v>
+        <v>1.243717086265733</v>
       </c>
       <c r="F7">
-        <v>0.7650124902292106</v>
+        <v>0.7808790831235797</v>
       </c>
       <c r="G7">
-        <v>0.0007733857425321862</v>
+        <v>0.7483733866170326</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.02474939663624531</v>
       </c>
       <c r="I7">
-        <v>1.858038342232447</v>
+        <v>0.00512629853047919</v>
       </c>
       <c r="J7">
-        <v>0.04726881050954646</v>
+        <v>0.408015855560123</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>9.255134397703159</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>3.889074806854879</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.37503214002885</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>2.393965135485587</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.170576999127917</v>
+        <v>3.232954425217486</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.03950741484706022</v>
+        <v>0.004651472534298762</v>
       </c>
       <c r="E8">
-        <v>0.03252116232037494</v>
+        <v>1.48298909896566</v>
       </c>
       <c r="F8">
-        <v>0.8751369555178741</v>
+        <v>0.9383283575202626</v>
       </c>
       <c r="G8">
-        <v>0.0007652759494332042</v>
+        <v>0.905488731097563</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.03256141614851416</v>
       </c>
       <c r="I8">
-        <v>2.203030125642115</v>
+        <v>0.002983637295443486</v>
       </c>
       <c r="J8">
-        <v>0.04583913428920283</v>
+        <v>0.4780849493874086</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>11.11520447974803</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>4.691360368565967</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.772422670608933</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>2.874128049847485</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.573725702774425</v>
+        <v>4.317762104428937</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03336609232849952</v>
+        <v>0.006340313117014773</v>
       </c>
       <c r="E9">
-        <v>0.02786154388642714</v>
+        <v>1.955994574624711</v>
       </c>
       <c r="F9">
-        <v>1.118118917985043</v>
+        <v>1.253880075775825</v>
       </c>
       <c r="G9">
-        <v>0.0007502036922426555</v>
+        <v>1.219763568889391</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.04974957914543943</v>
       </c>
       <c r="I9">
-        <v>2.897421548805326</v>
+        <v>0.0007709237986919248</v>
       </c>
       <c r="J9">
-        <v>0.04563485431635783</v>
+        <v>0.6190776918625716</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>14.71684120082335</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>6.264019892312149</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.627703970664356</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>3.836235941706946</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.873714468352716</v>
+        <v>5.117536575218764</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02935803332920983</v>
+        <v>0.007995837456949317</v>
       </c>
       <c r="E10">
-        <v>0.02549084158986759</v>
+        <v>2.199375871533221</v>
       </c>
       <c r="F10">
-        <v>1.318154942877086</v>
+        <v>1.476462524340761</v>
       </c>
       <c r="G10">
-        <v>0.000739563685661501</v>
+        <v>1.438790761030646</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.06257348623243564</v>
       </c>
       <c r="I10">
-        <v>3.42265370162545</v>
+        <v>0.001201653848322159</v>
       </c>
       <c r="J10">
-        <v>0.04741488307682573</v>
+        <v>0.7172811429874457</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>17.46403937377977</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>7.422485434068477</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>4.317514113245579</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>4.506602084889948</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.011431325700698</v>
+        <v>5.483227921780497</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.02765183604534727</v>
+        <v>0.01281259614260577</v>
       </c>
       <c r="E11">
-        <v>0.02467743801938838</v>
+        <v>1.472299568856812</v>
       </c>
       <c r="F11">
-        <v>1.41509113799053</v>
+        <v>1.449115946669181</v>
       </c>
       <c r="G11">
-        <v>0.0007347992605245714</v>
+        <v>1.391185028661994</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.07571626571263579</v>
       </c>
       <c r="I11">
-        <v>3.665908331194373</v>
+        <v>0.002367729425060361</v>
       </c>
       <c r="J11">
-        <v>0.04872959045724201</v>
+        <v>0.6907753575791844</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>18.85368032969564</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>7.951038435610059</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>4.648458472556172</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>4.350334738558104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.063799245829216</v>
+        <v>5.621657906775113</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.0270232860460089</v>
+        <v>0.01726635789960795</v>
       </c>
       <c r="E12">
-        <v>0.02441092296582781</v>
+        <v>0.9446637567187821</v>
       </c>
       <c r="F12">
-        <v>1.452770975476781</v>
+        <v>1.37956515459274</v>
       </c>
       <c r="G12">
-        <v>0.0007330043073735667</v>
+        <v>1.306600218017309</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.109384147625704</v>
       </c>
       <c r="I12">
-        <v>3.758740388544709</v>
+        <v>0.002685594657812373</v>
       </c>
       <c r="J12">
-        <v>0.04930807154363137</v>
+        <v>0.6481085983246828</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>19.31862268951397</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>8.15149310127066</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>4.776600904963743</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>4.081744328335787</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.052510562483803</v>
+        <v>5.591767537636429</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.02715786309032175</v>
+        <v>0.02161469637853841</v>
       </c>
       <c r="E13">
-        <v>0.02446641842230868</v>
+        <v>0.5400604508587534</v>
       </c>
       <c r="F13">
-        <v>1.444610685393499</v>
+        <v>1.274108034502646</v>
       </c>
       <c r="G13">
-        <v>0.0007333905005506764</v>
+        <v>1.189447088323789</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1600121771463989</v>
       </c>
       <c r="I13">
-        <v>3.738713847508222</v>
+        <v>0.002565693311898265</v>
       </c>
       <c r="J13">
-        <v>0.04917976273144475</v>
+        <v>0.5908590863053291</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>19.20531942921514</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>8.108306769130138</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>4.74887158483557</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>3.713509132434979</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.015735077200702</v>
+        <v>5.494584521202512</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.02759976886451732</v>
+        <v>0.0246564430251297</v>
       </c>
       <c r="E14">
-        <v>0.02465465930510646</v>
+        <v>0.331593347264949</v>
       </c>
       <c r="F14">
-        <v>1.418170872432214</v>
+        <v>1.185047036260912</v>
       </c>
       <c r="G14">
-        <v>0.0007346514137999919</v>
+        <v>1.093971421815866</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.2059162645477102</v>
       </c>
       <c r="I14">
-        <v>3.673530735955069</v>
+        <v>0.002371784973330904</v>
       </c>
       <c r="J14">
-        <v>0.04877551763767585</v>
+        <v>0.5447267682671395</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>18.88634122454636</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>7.967523403101012</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>4.65894211211787</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>3.414477930174655</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.993238541728488</v>
+        <v>5.435211649721907</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.02787275646351084</v>
+        <v>0.02526632533683681</v>
       </c>
       <c r="E15">
-        <v>0.02477547335346131</v>
+        <v>0.2898486075276345</v>
       </c>
       <c r="F15">
-        <v>1.402106065262132</v>
+        <v>1.15583404285637</v>
       </c>
       <c r="G15">
-        <v>0.0007354249093398966</v>
+        <v>1.063768858598394</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.2172797121543084</v>
       </c>
       <c r="I15">
-        <v>3.633700531397153</v>
+        <v>0.002360979222592263</v>
       </c>
       <c r="J15">
-        <v>0.04853865820400216</v>
+        <v>0.5304308045410693</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>18.7169579669777</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>7.881331493073048</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>4.604236318188555</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>3.320490838167018</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.864742653064951</v>
+        <v>5.094602465416529</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.02947195321338558</v>
+        <v>0.02347913744612029</v>
       </c>
       <c r="E16">
-        <v>0.0255496153659287</v>
+        <v>0.2835651046954446</v>
       </c>
       <c r="F16">
-        <v>1.311949251194577</v>
+        <v>1.084394641549807</v>
       </c>
       <c r="G16">
-        <v>0.0007398764384374536</v>
+        <v>0.9969351464690277</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.2004453272713391</v>
       </c>
       <c r="I16">
-        <v>3.406851357055984</v>
+        <v>0.001876167382247829</v>
       </c>
       <c r="J16">
-        <v>0.04733979193525073</v>
+        <v>0.5013456165189325</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>17.58794607820835</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>7.387981179423605</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>4.296260634745465</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>3.117728576380614</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.786260580159961</v>
+        <v>4.885989206659872</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.03048348897187125</v>
+        <v>0.02047036029973626</v>
       </c>
       <c r="E17">
-        <v>0.02609472380549427</v>
+        <v>0.3752688284100145</v>
       </c>
       <c r="F17">
-        <v>1.258242160363181</v>
+        <v>1.076448596542264</v>
       </c>
       <c r="G17">
-        <v>0.0007426255837099993</v>
+        <v>0.9956856254515571</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1612285606931749</v>
       </c>
       <c r="I17">
-        <v>3.268858875592159</v>
+        <v>0.001730364264286521</v>
       </c>
       <c r="J17">
-        <v>0.04673911269909325</v>
+        <v>0.5032837259566918</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>16.89909165923979</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>7.085779684943248</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>4.111959802435877</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>3.11901781794657</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.741235002367688</v>
+        <v>4.765853761231426</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.03107627296569593</v>
+        <v>0.01638167523580236</v>
       </c>
       <c r="E18">
-        <v>0.02643298171683384</v>
+        <v>0.6271559499406578</v>
       </c>
       <c r="F18">
-        <v>1.227902453448294</v>
+        <v>1.122692540553601</v>
       </c>
       <c r="G18">
-        <v>0.0007442140603694402</v>
+        <v>1.051872748385833</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.1098567247465212</v>
       </c>
       <c r="I18">
-        <v>3.189890004992904</v>
+        <v>0.001442733863322054</v>
       </c>
       <c r="J18">
-        <v>0.04644062183072251</v>
+        <v>0.5324832252401421</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>16.43940800149016</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>6.912103094475498</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>4.007545255943398</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>3.299198261991648</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.726008815775714</v>
+        <v>4.725392223402594</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.03127884358688071</v>
+        <v>0.01216652868010115</v>
       </c>
       <c r="E19">
-        <v>0.02655165853601638</v>
+        <v>1.091216102147939</v>
       </c>
       <c r="F19">
-        <v>1.217721222719774</v>
+        <v>1.21111042277731</v>
       </c>
       <c r="G19">
-        <v>0.0007447531827632411</v>
+        <v>1.153219598380417</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.06961767483103642</v>
       </c>
       <c r="I19">
-        <v>3.16321858869226</v>
+        <v>0.001548324453265693</v>
       </c>
       <c r="J19">
-        <v>0.04634739967998414</v>
+        <v>0.5826363039390969</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>16.33392900694503</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>6.853321277849318</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>3.972455243260413</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>3.619043685112672</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.794602942625716</v>
+        <v>4.90816401171503</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.03037466835488178</v>
+        <v>0.00757475323071688</v>
       </c>
       <c r="E20">
-        <v>0.02603411348598783</v>
+        <v>2.130735565811449</v>
       </c>
       <c r="F20">
-        <v>1.263901510285137</v>
+        <v>1.416983056863728</v>
       </c>
       <c r="G20">
-        <v>0.0007423321945833513</v>
+        <v>1.380184111834922</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.05902348630387433</v>
       </c>
       <c r="I20">
-        <v>3.283506275723866</v>
+        <v>0.001719905060919125</v>
       </c>
       <c r="J20">
-        <v>0.04679813579941339</v>
+        <v>0.6909434255282179</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>16.96718881909834</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>7.117934342551365</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>4.131411888978505</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>4.327105512069636</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.026530706066865</v>
+        <v>5.523485428346078</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.02746948818858286</v>
+        <v>0.008227335835972127</v>
       </c>
       <c r="E21">
-        <v>0.02459821338000623</v>
+        <v>2.486912701373512</v>
       </c>
       <c r="F21">
-        <v>1.425909493516372</v>
+        <v>1.613337030998409</v>
       </c>
       <c r="G21">
-        <v>0.000734280816584925</v>
+        <v>1.57715413765078</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.07154910545277904</v>
       </c>
       <c r="I21">
-        <v>3.692656336815901</v>
+        <v>0.002702293241272358</v>
       </c>
       <c r="J21">
-        <v>0.04889199795295696</v>
+        <v>0.7803275449949183</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>19.0530814542908</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>8.008865990894094</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>4.685276985617918</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>4.932139499556115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.179397065776698</v>
+        <v>5.926508323456346</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.02567344849867936</v>
+        <v>0.008859880175521084</v>
       </c>
       <c r="E22">
-        <v>0.02390349553793136</v>
+        <v>2.666039263515032</v>
       </c>
       <c r="F22">
-        <v>1.537522520163648</v>
+        <v>1.735663681811758</v>
       </c>
       <c r="G22">
-        <v>0.0007290716761090137</v>
+        <v>1.698681290794781</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.07946378800872367</v>
       </c>
       <c r="I22">
-        <v>3.96428884860299</v>
+        <v>0.003528557158854362</v>
       </c>
       <c r="J22">
-        <v>0.0507347650095511</v>
+        <v>0.835320365177779</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>20.33691491389084</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>8.592951508077107</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>5.063897636351271</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>5.305108929444486</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.097678112137999</v>
+        <v>5.710813434058196</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.02662238558913099</v>
+        <v>0.008522072344042897</v>
       </c>
       <c r="E23">
-        <v>0.02425077203148618</v>
+        <v>2.570290555695806</v>
       </c>
       <c r="F23">
-        <v>1.47738553284691</v>
+        <v>1.670215126827401</v>
       </c>
       <c r="G23">
-        <v>0.000731847650043495</v>
+        <v>1.633665356471539</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.07519895378130315</v>
       </c>
       <c r="I23">
-        <v>3.818892531255869</v>
+        <v>0.002715883999512059</v>
       </c>
       <c r="J23">
-        <v>0.04970497701783927</v>
+        <v>0.8058908924639923</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>19.56216501873087</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>8.281019979219053</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>4.860170126747278</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>5.105556275613822</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.790831068045236</v>
+        <v>4.897578964285287</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.0304238312032421</v>
+        <v>0.007247198907592178</v>
       </c>
       <c r="E24">
-        <v>0.026061438206197</v>
+        <v>2.210605361682241</v>
       </c>
       <c r="F24">
-        <v>1.261341253651423</v>
+        <v>1.425649117290448</v>
       </c>
       <c r="G24">
-        <v>0.0007424648109009793</v>
+        <v>1.390606508483813</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.0598876084145159</v>
       </c>
       <c r="I24">
-        <v>3.276883056779909</v>
+        <v>0.00121840794353556</v>
       </c>
       <c r="J24">
-        <v>0.04677130613185554</v>
+        <v>0.6960614874569728</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>16.79929515435532</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>7.103397031208033</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>4.122612822602093</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>4.359915520575157</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.464128501113152</v>
+        <v>4.024421293534886</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.03494146460479985</v>
+        <v>0.005881490147906732</v>
       </c>
       <c r="E25">
-        <v>0.0289487388012919</v>
+        <v>1.827433420641498</v>
       </c>
       <c r="F25">
-        <v>1.049001099033674</v>
+        <v>1.167623741796646</v>
       </c>
       <c r="G25">
-        <v>0.000754199312037385</v>
+        <v>1.133918903220717</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.04486039351799054</v>
       </c>
       <c r="I25">
-        <v>2.70725107505838</v>
+        <v>0.001477616286336136</v>
       </c>
       <c r="J25">
-        <v>0.04537808353969552</v>
+        <v>0.5804757806425016</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>13.86295033852366</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>5.838311466534179</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>3.386720742289071</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>3.573258066952633</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_61/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_61/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,46 +421,52 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.382579823018773</v>
+        <v>3.37857627820955</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.004883557784292947</v>
+        <v>0.005198469120445637</v>
       </c>
       <c r="E2">
-        <v>1.548008277558765</v>
+        <v>1.534952129070405</v>
       </c>
       <c r="F2">
-        <v>0.9813916079176153</v>
+        <v>0.9801529627736869</v>
       </c>
       <c r="G2">
-        <v>0.9484193012768998</v>
+        <v>0.9521486587513124</v>
       </c>
       <c r="H2">
-        <v>0.03479075568835466</v>
+        <v>0.03310328374399152</v>
       </c>
       <c r="I2">
-        <v>0.00226091685459906</v>
+        <v>0.003056644453686808</v>
       </c>
       <c r="J2">
-        <v>0.4972864804997528</v>
+        <v>0.5474734260074712</v>
       </c>
       <c r="K2">
-        <v>11.52412880593573</v>
+        <v>3.741100261597467</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>1.269282526755489</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1.534465596699633</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -472,48 +478,54 @@
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>3.005438779866893</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>3.003726058300003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.948045210902649</v>
+        <v>2.947339705354125</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.004211768913815916</v>
+        <v>0.004478616368087884</v>
       </c>
       <c r="E3">
-        <v>1.359674680681266</v>
+        <v>1.347973734364714</v>
       </c>
       <c r="F3">
-        <v>0.8569708652808572</v>
+        <v>0.8569467341951338</v>
       </c>
       <c r="G3">
-        <v>0.824336075651587</v>
+        <v>0.8255691285479685</v>
       </c>
       <c r="H3">
-        <v>0.0284566687151524</v>
+        <v>0.02701868651019534</v>
       </c>
       <c r="I3">
-        <v>0.003740881385943418</v>
+        <v>0.004025344732915048</v>
       </c>
       <c r="J3">
-        <v>0.4418500226789632</v>
+        <v>0.4931707061536343</v>
       </c>
       <c r="K3">
-        <v>10.07224184298005</v>
+        <v>3.255618611089332</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>1.074118159501481</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>1.367805833580917</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -525,48 +537,54 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2.626030995826397</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>2.628318963419787</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.681048148417744</v>
+        <v>2.681821740710859</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.003801446747077719</v>
+        <v>0.004039089335144297</v>
       </c>
       <c r="E4">
-        <v>1.244350362081462</v>
+        <v>1.233457418790024</v>
       </c>
       <c r="F4">
-        <v>0.7812934730058316</v>
+        <v>0.7819574248786694</v>
       </c>
       <c r="G4">
-        <v>0.7487872568049738</v>
+        <v>0.7485760831310415</v>
       </c>
       <c r="H4">
-        <v>0.02476922935772552</v>
+        <v>0.02347884192585514</v>
       </c>
       <c r="I4">
-        <v>0.004900121160077653</v>
+        <v>0.004739054703571277</v>
       </c>
       <c r="J4">
-        <v>0.4081999535311809</v>
+        <v>0.4600075816462663</v>
       </c>
       <c r="K4">
-        <v>9.189783335065925</v>
+        <v>2.961614114354106</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.9572798346559495</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>1.266105139427864</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -578,48 +596,54 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2.395229030700079</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>2.399774969450107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.572190666577455</v>
+        <v>2.573431318137295</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.003634773241209643</v>
+        <v>0.003860573671261136</v>
       </c>
       <c r="E5">
-        <v>1.197406529506992</v>
+        <v>1.186837989012545</v>
       </c>
       <c r="F5">
-        <v>0.7506120612244445</v>
+        <v>0.7515437016268294</v>
       </c>
       <c r="G5">
-        <v>0.7181384307496046</v>
+        <v>0.7173584075757873</v>
       </c>
       <c r="H5">
-        <v>0.02331164673859365</v>
+        <v>0.02208023876550458</v>
       </c>
       <c r="I5">
-        <v>0.005492125352045463</v>
+        <v>0.005143464472314285</v>
       </c>
       <c r="J5">
-        <v>0.3945744424996747</v>
+        <v>0.4465324452008446</v>
       </c>
       <c r="K5">
-        <v>8.853051793186836</v>
+        <v>2.849965454661415</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.9127747871723102</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>1.227799715848974</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -631,48 +655,54 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2.301647509455591</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>2.307069715887621</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.554139934485761</v>
+        <v>2.555426853162203</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.003607129421569155</v>
+        <v>0.003830966512158085</v>
       </c>
       <c r="E6">
-        <v>1.189613904579772</v>
+        <v>1.17909897038804</v>
       </c>
       <c r="F6">
-        <v>0.7455263244338539</v>
+        <v>0.7465016964833069</v>
       </c>
       <c r="G6">
-        <v>0.7130569078675109</v>
+        <v>0.7121835433298003</v>
       </c>
       <c r="H6">
-        <v>0.02307217882041934</v>
+        <v>0.02185050056465343</v>
       </c>
       <c r="I6">
-        <v>0.005678592604683175</v>
+        <v>0.005326341803723267</v>
       </c>
       <c r="J6">
-        <v>0.3923169074572996</v>
+        <v>0.4442971050581974</v>
       </c>
       <c r="K6">
-        <v>8.822774377572443</v>
+        <v>2.840268242994924</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.908325479534895</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>1.225121752171816</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -684,48 +714,54 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2.28613491494545</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>2.291700144024276</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.679674505376852</v>
+        <v>2.680378805135717</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.003799196767758417</v>
+        <v>0.004079407183315453</v>
       </c>
       <c r="E7">
-        <v>1.243717086265733</v>
+        <v>1.232734535888284</v>
       </c>
       <c r="F7">
-        <v>0.7808790831235797</v>
+        <v>0.7798921085093582</v>
       </c>
       <c r="G7">
-        <v>0.7483733866170326</v>
+        <v>0.7530301252773342</v>
       </c>
       <c r="H7">
-        <v>0.02474939663624531</v>
+        <v>0.0234487212210579</v>
       </c>
       <c r="I7">
-        <v>0.00512629853047919</v>
+        <v>0.005038490317038402</v>
       </c>
       <c r="J7">
-        <v>0.408015855560123</v>
+        <v>0.4517470043072933</v>
       </c>
       <c r="K7">
-        <v>9.255134397703159</v>
+        <v>2.984205148036352</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.9646831569641563</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>1.2756133355836</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -737,48 +773,54 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>2.393965135485587</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>2.392544838145369</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.232954425217486</v>
+        <v>3.23007157908944</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.004651472534298762</v>
+        <v>0.005093707868997654</v>
       </c>
       <c r="E8">
-        <v>1.48298909896566</v>
+        <v>1.470093881637339</v>
       </c>
       <c r="F8">
-        <v>0.9383283575202626</v>
+        <v>0.9319697942176219</v>
       </c>
       <c r="G8">
-        <v>0.905488731097563</v>
+        <v>0.9247419061617421</v>
       </c>
       <c r="H8">
-        <v>0.03256141614851416</v>
+        <v>0.03092172051920539</v>
       </c>
       <c r="I8">
-        <v>0.002983637295443486</v>
+        <v>0.003722201397029501</v>
       </c>
       <c r="J8">
-        <v>0.4780849493874086</v>
+        <v>0.5018758330336937</v>
       </c>
       <c r="K8">
-        <v>11.11520447974803</v>
+        <v>3.605289617470902</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>1.212390714097324</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1.490119735010012</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -790,48 +832,54 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2.874128049847485</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>2.853787444778135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.317762104428937</v>
+        <v>4.302643912013366</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.006340313117014773</v>
+        <v>0.006946882228614726</v>
       </c>
       <c r="E9">
-        <v>1.955994574624711</v>
+        <v>1.939430041945627</v>
       </c>
       <c r="F9">
-        <v>1.253880075775825</v>
+        <v>1.242437841531498</v>
       </c>
       <c r="G9">
-        <v>1.219763568889391</v>
+        <v>1.250669821721573</v>
       </c>
       <c r="H9">
-        <v>0.04974957914543943</v>
+        <v>0.04742713587279113</v>
       </c>
       <c r="I9">
-        <v>0.0007709237986919248</v>
+        <v>0.001750839933300163</v>
       </c>
       <c r="J9">
-        <v>0.6190776918625716</v>
+        <v>0.6308018809755822</v>
       </c>
       <c r="K9">
-        <v>14.71684120082335</v>
+        <v>4.812748387863365</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>1.707007242616925</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.89864197882865</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -843,48 +891,54 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>3.836235941706946</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>3.798579473997393</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.117536575218764</v>
+        <v>5.088379665885668</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.007995837456949317</v>
+        <v>0.009004801160170217</v>
       </c>
       <c r="E10">
-        <v>2.199375871533221</v>
+        <v>2.179760296409313</v>
       </c>
       <c r="F10">
-        <v>1.476462524340761</v>
+        <v>1.450969640260183</v>
       </c>
       <c r="G10">
-        <v>1.438790761030646</v>
+        <v>1.508453351125382</v>
       </c>
       <c r="H10">
-        <v>0.06257348623243564</v>
+        <v>0.05966064057716114</v>
       </c>
       <c r="I10">
-        <v>0.001201653848322159</v>
+        <v>0.001279931822089964</v>
       </c>
       <c r="J10">
-        <v>0.7172811429874457</v>
+        <v>0.6722072253824081</v>
       </c>
       <c r="K10">
-        <v>17.46403937377977</v>
+        <v>5.73504584202766</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>2.089944884526091</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>2.208521902997461</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -896,48 +950,54 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>4.506602084889948</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>4.419156169085511</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.483227921780497</v>
+        <v>5.445722319817435</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.01281259614260577</v>
+        <v>0.01477165372416067</v>
       </c>
       <c r="E11">
-        <v>1.472299568856812</v>
+        <v>1.454239114765443</v>
       </c>
       <c r="F11">
-        <v>1.449115946669181</v>
+        <v>1.402186733911194</v>
       </c>
       <c r="G11">
-        <v>1.391185028661994</v>
+        <v>1.525662192698604</v>
       </c>
       <c r="H11">
-        <v>0.07571626571263579</v>
+        <v>0.07277384122680886</v>
       </c>
       <c r="I11">
-        <v>0.002367729425060361</v>
+        <v>0.001775712278500485</v>
       </c>
       <c r="J11">
-        <v>0.6907753575791844</v>
+        <v>0.5522056401575099</v>
       </c>
       <c r="K11">
-        <v>18.85368032969564</v>
+        <v>6.202209118983291</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>2.282655029747133</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>2.367332736035564</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -949,48 +1009,54 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>4.350334738558104</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>4.187239632569515</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.621657906775113</v>
+        <v>5.58095508651968</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.01726635789960795</v>
+        <v>0.01989330789119137</v>
       </c>
       <c r="E12">
-        <v>0.9446637567187821</v>
+        <v>0.9286469631318113</v>
       </c>
       <c r="F12">
-        <v>1.37956515459274</v>
+        <v>1.324278627074563</v>
       </c>
       <c r="G12">
-        <v>1.306600218017309</v>
+        <v>1.467308841777253</v>
       </c>
       <c r="H12">
-        <v>0.109384147625704</v>
+        <v>0.1065437321902465</v>
       </c>
       <c r="I12">
-        <v>0.002685594657812373</v>
+        <v>0.001745455916530858</v>
       </c>
       <c r="J12">
-        <v>0.6481085983246828</v>
+        <v>0.4755336784808719</v>
       </c>
       <c r="K12">
-        <v>19.31862268951397</v>
+        <v>6.357694151093114</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>2.348233783844506</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>2.418916410462742</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1002,48 +1068,54 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>4.081744328335787</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>3.890188506845277</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.591767537636429</v>
+        <v>5.551814712942416</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.02161469637853841</v>
+        <v>0.02436785306147726</v>
       </c>
       <c r="E13">
-        <v>0.5400604508587534</v>
+        <v>0.5264728742756262</v>
       </c>
       <c r="F13">
-        <v>1.274108034502646</v>
+        <v>1.223500259548814</v>
       </c>
       <c r="G13">
-        <v>1.189447088323789</v>
+        <v>1.336880494074279</v>
       </c>
       <c r="H13">
-        <v>0.1600121771463989</v>
+        <v>0.1573915150819687</v>
       </c>
       <c r="I13">
-        <v>0.002565693311898265</v>
+        <v>0.001695596200529614</v>
       </c>
       <c r="J13">
-        <v>0.5908590863053291</v>
+        <v>0.4374006966910429</v>
       </c>
       <c r="K13">
-        <v>19.20531942921514</v>
+        <v>6.319664415238577</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>2.332479451636118</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>2.406027843523333</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1055,48 +1127,54 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>3.713509132434979</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>3.539635344246676</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.494584521202512</v>
+        <v>5.4568416266344</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.0246564430251297</v>
+        <v>0.02718014126823221</v>
       </c>
       <c r="E14">
-        <v>0.331593347264949</v>
+        <v>0.319726752494816</v>
       </c>
       <c r="F14">
-        <v>1.185047036260912</v>
+        <v>1.142892067777112</v>
       </c>
       <c r="G14">
-        <v>1.093971421815866</v>
+        <v>1.216613791186148</v>
       </c>
       <c r="H14">
-        <v>0.2059162645477102</v>
+        <v>0.2034869738871379</v>
       </c>
       <c r="I14">
-        <v>0.002371784973330904</v>
+        <v>0.001748908435102337</v>
       </c>
       <c r="J14">
-        <v>0.5447267682671395</v>
+        <v>0.4251956617063684</v>
       </c>
       <c r="K14">
-        <v>18.88634122454636</v>
+        <v>6.213071649815419</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>2.2873583332794</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>2.370820410979093</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1108,48 +1186,54 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>3.414477930174655</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>3.270934507258858</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.435211649721907</v>
+        <v>5.398696030793531</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.02526632533683681</v>
+        <v>0.02759630503395272</v>
       </c>
       <c r="E15">
-        <v>0.2898486075276345</v>
+        <v>0.2784802244180646</v>
       </c>
       <c r="F15">
-        <v>1.15583404285637</v>
+        <v>1.11793315406257</v>
       </c>
       <c r="G15">
-        <v>1.063768858598394</v>
+        <v>1.173904548986371</v>
       </c>
       <c r="H15">
-        <v>0.2172797121543084</v>
+        <v>0.2149252220817033</v>
       </c>
       <c r="I15">
-        <v>0.002360979222592263</v>
+        <v>0.001898833611671868</v>
       </c>
       <c r="J15">
-        <v>0.5304308045410693</v>
+        <v>0.4280359487594154</v>
       </c>
       <c r="K15">
-        <v>18.7169579669777</v>
+        <v>6.156750465584224</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>2.262940954596274</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>2.352769955851244</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1161,48 +1245,54 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>3.320490838167018</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>3.191931065075266</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.094602465416529</v>
+        <v>5.065248474393343</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.02347913744612029</v>
+        <v>0.02475374453202761</v>
       </c>
       <c r="E16">
-        <v>0.2835651046954446</v>
+        <v>0.2731760735488571</v>
       </c>
       <c r="F16">
-        <v>1.084394641549807</v>
+        <v>1.065031648244442</v>
       </c>
       <c r="G16">
-        <v>0.9969351464690277</v>
+        <v>1.052945098968891</v>
       </c>
       <c r="H16">
-        <v>0.2004453272713391</v>
+        <v>0.1983805095747044</v>
       </c>
       <c r="I16">
-        <v>0.001876167382247829</v>
+        <v>0.002132965868829828</v>
       </c>
       <c r="J16">
-        <v>0.5013456165189325</v>
+        <v>0.4761433325298157</v>
       </c>
       <c r="K16">
-        <v>17.58794607820835</v>
+        <v>5.778888397600923</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>2.103758719287725</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>2.227478206699928</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1214,48 +1304,54 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>3.117728576380614</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>3.053669907774662</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.885989206659872</v>
+        <v>4.860634695955923</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.02047036029973626</v>
+        <v>0.02129385665487504</v>
       </c>
       <c r="E17">
-        <v>0.3752688284100145</v>
+        <v>0.3647708157675211</v>
       </c>
       <c r="F17">
-        <v>1.076448596542264</v>
+        <v>1.064844695150086</v>
       </c>
       <c r="G17">
-        <v>0.9956856254515571</v>
+        <v>1.029167150355846</v>
       </c>
       <c r="H17">
-        <v>0.1612285606931749</v>
+        <v>0.1592743383787791</v>
       </c>
       <c r="I17">
-        <v>0.001730364264286521</v>
+        <v>0.002343139873168809</v>
       </c>
       <c r="J17">
-        <v>0.5032837259566918</v>
+        <v>0.512206996001396</v>
       </c>
       <c r="K17">
-        <v>16.89909165923979</v>
+        <v>5.548135641191635</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>2.006833797062043</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>2.150849485818227</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1267,48 +1363,54 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>3.11901781794657</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>3.081885727128025</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.765853761231426</v>
+        <v>4.742859392050036</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.01638167523580236</v>
+        <v>0.01702430993739767</v>
       </c>
       <c r="E18">
-        <v>0.6271559499406578</v>
+        <v>0.6155812599667954</v>
       </c>
       <c r="F18">
-        <v>1.122692540553601</v>
+        <v>1.114112999309242</v>
       </c>
       <c r="G18">
-        <v>1.051872748385833</v>
+        <v>1.075999815235477</v>
       </c>
       <c r="H18">
-        <v>0.1098567247465212</v>
+        <v>0.1078770156493079</v>
       </c>
       <c r="I18">
-        <v>0.001442733863322054</v>
+        <v>0.002176283411331248</v>
       </c>
       <c r="J18">
-        <v>0.5324832252401421</v>
+        <v>0.5560900674945941</v>
       </c>
       <c r="K18">
-        <v>16.43940800149016</v>
+        <v>5.393326535686327</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>1.94342675023924</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>2.09794918413661</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1320,48 +1422,54 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>3.299198261991648</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>3.272540209500903</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.725392223402594</v>
+        <v>4.703025162701749</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.01216652868010115</v>
+        <v>0.01275943337064689</v>
       </c>
       <c r="E19">
-        <v>1.091216102147939</v>
+        <v>1.07764211138165</v>
       </c>
       <c r="F19">
-        <v>1.21111042277731</v>
+        <v>1.202863815260869</v>
       </c>
       <c r="G19">
-        <v>1.153219598380417</v>
+        <v>1.175279297109341</v>
       </c>
       <c r="H19">
-        <v>0.06961767483103642</v>
+        <v>0.06747713812305989</v>
       </c>
       <c r="I19">
-        <v>0.001548324453265693</v>
+        <v>0.002359535199780716</v>
       </c>
       <c r="J19">
-        <v>0.5826363039390969</v>
+        <v>0.6099296934595202</v>
       </c>
       <c r="K19">
-        <v>16.33392900694503</v>
+        <v>5.358299166975684</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>1.928117299238664</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>2.086916665365123</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1373,48 +1481,54 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>3.619043685112672</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>3.593457205358959</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.90816401171503</v>
+        <v>4.882413673457734</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.00757475323071688</v>
+        <v>0.008310277441832881</v>
       </c>
       <c r="E20">
-        <v>2.130735565811449</v>
+        <v>2.112295934511124</v>
       </c>
       <c r="F20">
-        <v>1.416983056863728</v>
+        <v>1.401377991318213</v>
       </c>
       <c r="G20">
-        <v>1.380184111834922</v>
+        <v>1.421263884818472</v>
       </c>
       <c r="H20">
-        <v>0.05902348630387433</v>
+        <v>0.05632227497124376</v>
       </c>
       <c r="I20">
-        <v>0.001719905060919125</v>
+        <v>0.002293599022461734</v>
       </c>
       <c r="J20">
-        <v>0.6909434255282179</v>
+        <v>0.6896068291879658</v>
       </c>
       <c r="K20">
-        <v>16.96718881909834</v>
+        <v>5.570893123944415</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>2.016499337399793</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>2.158299005326796</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1426,48 +1540,54 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>4.327105512069636</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>4.275067962322282</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.523485428346078</v>
+        <v>5.48482635513335</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.008227335835972127</v>
+        <v>0.01015240861701372</v>
       </c>
       <c r="E21">
-        <v>2.486912701373512</v>
+        <v>2.463531894376388</v>
       </c>
       <c r="F21">
-        <v>1.613337030998409</v>
+        <v>1.553631554418459</v>
       </c>
       <c r="G21">
-        <v>1.57715413765078</v>
+        <v>1.748983813361434</v>
       </c>
       <c r="H21">
-        <v>0.07154910545277904</v>
+        <v>0.06802659560194702</v>
       </c>
       <c r="I21">
-        <v>0.002702293241272358</v>
+        <v>0.002053564270226182</v>
       </c>
       <c r="J21">
-        <v>0.7803275449949183</v>
+        <v>0.5892319202613692</v>
       </c>
       <c r="K21">
-        <v>19.0530814542908</v>
+        <v>6.269646845388706</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>2.309618161752979</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>2.391090112649835</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1479,48 +1599,54 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>4.932139499556115</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>4.72178467507598</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.926508323456346</v>
+        <v>5.878322507905921</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.008859880175521084</v>
+        <v>0.01169994757950477</v>
       </c>
       <c r="E22">
-        <v>2.666039263515032</v>
+        <v>2.639483102734928</v>
       </c>
       <c r="F22">
-        <v>1.735663681811758</v>
+        <v>1.643883164941485</v>
       </c>
       <c r="G22">
-        <v>1.698681290794781</v>
+        <v>1.968953289075074</v>
       </c>
       <c r="H22">
-        <v>0.07946378800872367</v>
+        <v>0.07538696453200266</v>
       </c>
       <c r="I22">
-        <v>0.003528557158854362</v>
+        <v>0.001713660669288686</v>
       </c>
       <c r="J22">
-        <v>0.835320365177779</v>
+        <v>0.5177405548052292</v>
       </c>
       <c r="K22">
-        <v>20.33691491389084</v>
+        <v>6.697768887311383</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>2.492138791216689</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>2.531456330504739</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1532,48 +1658,54 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>5.305108929444486</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>4.979784203332997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.710813434058196</v>
+        <v>5.668198652478566</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.008522072344042897</v>
+        <v>0.0107359198035617</v>
       </c>
       <c r="E23">
-        <v>2.570290555695806</v>
+        <v>2.545666277192652</v>
       </c>
       <c r="F23">
-        <v>1.670215126827401</v>
+        <v>1.600207049749429</v>
       </c>
       <c r="G23">
-        <v>1.633665356471539</v>
+        <v>1.836441152611371</v>
       </c>
       <c r="H23">
-        <v>0.07519895378130315</v>
+        <v>0.07145544747397015</v>
       </c>
       <c r="I23">
-        <v>0.002715883999512059</v>
+        <v>0.001505583518985887</v>
       </c>
       <c r="J23">
-        <v>0.8058908924639923</v>
+        <v>0.5735471345299175</v>
       </c>
       <c r="K23">
-        <v>19.56216501873087</v>
+        <v>6.438451105679007</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>2.383611013305767</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>2.444496692595976</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1585,48 +1717,54 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>5.105556275613822</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>4.858322210503559</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.897578964285287</v>
+        <v>4.872433106037306</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.007247198907592178</v>
+        <v>0.007966261106972183</v>
       </c>
       <c r="E24">
-        <v>2.210605361682241</v>
+        <v>2.191878919233758</v>
       </c>
       <c r="F24">
-        <v>1.425649117290448</v>
+        <v>1.410314315126044</v>
       </c>
       <c r="G24">
-        <v>1.390606508483813</v>
+        <v>1.430774493723021</v>
       </c>
       <c r="H24">
-        <v>0.0598876084145159</v>
+        <v>0.05716008926595961</v>
       </c>
       <c r="I24">
-        <v>0.00121840794353556</v>
+        <v>0.001704931355390293</v>
       </c>
       <c r="J24">
-        <v>0.6960614874569728</v>
+        <v>0.6962096071383144</v>
       </c>
       <c r="K24">
-        <v>16.79929515435532</v>
+        <v>5.513065322093922</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>1.995324172740297</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>2.13611866391669</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1638,48 +1776,54 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>4.359915520575157</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>4.308817647915191</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.024421293534886</v>
+        <v>4.013054121371113</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.005881490147906732</v>
+        <v>0.006380390171111472</v>
       </c>
       <c r="E25">
-        <v>1.827433420641498</v>
+        <v>1.8120335115768</v>
       </c>
       <c r="F25">
-        <v>1.167623741796646</v>
+        <v>1.16004210964816</v>
       </c>
       <c r="G25">
-        <v>1.133918903220717</v>
+        <v>1.154422996388632</v>
       </c>
       <c r="H25">
-        <v>0.04486039351799054</v>
+        <v>0.04274917926419342</v>
       </c>
       <c r="I25">
-        <v>0.001477616286336136</v>
+        <v>0.002670473434624121</v>
       </c>
       <c r="J25">
-        <v>0.5804757806425016</v>
+        <v>0.6072433544730984</v>
       </c>
       <c r="K25">
-        <v>13.86295033852366</v>
+        <v>4.527650811568293</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>1.586372249236888</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.805564981904482</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -1691,7 +1835,13 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>3.573258066952633</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>3.549245444345388</v>
       </c>
     </row>
   </sheetData>
